--- a/WM_StudyDatabase.xlsx
+++ b/WM_StudyDatabase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-35940" yWindow="1060" windowWidth="32580" windowHeight="21120" tabRatio="500"/>
+    <workbookView xWindow="16580" yWindow="0" windowWidth="32580" windowHeight="21120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,12 +61,6 @@
     <t>8r</t>
   </si>
   <si>
-    <t>9/46d</t>
-  </si>
-  <si>
-    <t>9/46v</t>
-  </si>
-  <si>
     <t>Core</t>
   </si>
   <si>
@@ -106,9 +100,6 @@
     <t>Perirhinal</t>
   </si>
   <si>
-    <t>S2</t>
-  </si>
-  <si>
     <t>STPc</t>
   </si>
   <si>
@@ -124,12 +115,6 @@
     <t>Temporal Pole</t>
   </si>
   <si>
-    <t>TEam a</t>
-  </si>
-  <si>
-    <t>TEam p</t>
-  </si>
-  <si>
     <t>TEad</t>
   </si>
   <si>
@@ -154,21 +139,12 @@
     <t>Superior Colliculus</t>
   </si>
   <si>
-    <t>Mediodorsal nucleus of thalamus</t>
-  </si>
-  <si>
-    <t>Ventral posterior lateral nucleus of thalamus</t>
-  </si>
-  <si>
     <t>Caudate nucleus</t>
   </si>
   <si>
     <t>Hippocampus</t>
   </si>
   <si>
-    <t>Area</t>
-  </si>
-  <si>
     <t>Authors</t>
   </si>
   <si>
@@ -178,12 +154,6 @@
     <t>Journal</t>
   </si>
   <si>
-    <t>Positive Finding</t>
-  </si>
-  <si>
-    <t>Negative Finding</t>
-  </si>
-  <si>
     <t>2,3,4,5</t>
   </si>
   <si>
@@ -3878,6 +3848,36 @@
   </si>
   <si>
     <t>url</t>
+  </si>
+  <si>
+    <t>SII</t>
+  </si>
+  <si>
+    <t>TEa-ma</t>
+  </si>
+  <si>
+    <t>TEa-mp</t>
+  </si>
+  <si>
+    <t>negative_finding</t>
+  </si>
+  <si>
+    <t>positive_finding</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>VPL nucl. of thalamus</t>
+  </si>
+  <si>
+    <t>MD nucl. of thalamus</t>
+  </si>
+  <si>
+    <t>9-46d</t>
+  </si>
+  <si>
+    <t>9-46v</t>
   </si>
 </sst>
 </file>
@@ -3970,7 +3970,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4004,6 +4004,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -4360,8 +4363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4373,13 +4376,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>198</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4396,7 +4399,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C3" s="5">
         <v>6</v>
@@ -4407,7 +4410,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -4416,7 +4419,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C5" s="5">
         <v>6</v>
@@ -4427,7 +4430,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5">
         <v>6</v>
@@ -4439,7 +4442,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4447,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -4456,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C9" s="5"/>
     </row>
@@ -4465,7 +4468,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C10" s="5"/>
     </row>
@@ -4474,7 +4477,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C11" s="5"/>
     </row>
@@ -4486,7 +4489,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4495,7 +4498,7 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4503,7 +4506,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C14" s="5"/>
     </row>
@@ -4512,7 +4515,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C15" s="5"/>
     </row>
@@ -4521,7 +4524,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C16" s="5"/>
     </row>
@@ -4530,7 +4533,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C17" s="5"/>
     </row>
@@ -4548,7 +4551,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C19" s="5">
         <v>47</v>
@@ -4559,7 +4562,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C20" s="5"/>
     </row>
@@ -4568,7 +4571,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C21" s="5"/>
     </row>
@@ -4577,7 +4580,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C22" s="5"/>
     </row>
@@ -4586,7 +4589,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C23" s="5"/>
     </row>
@@ -4601,41 +4604,41 @@
     </row>
     <row r="25" spans="1:4" ht="60">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27" s="5">
         <v>63</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B28" s="5">
         <v>67</v>
@@ -4644,25 +4647,25 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B31" s="5">
         <v>71</v>
@@ -4671,34 +4674,34 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C32" s="5"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C33" s="5"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C34" s="5"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B35" s="5">
         <v>65</v>
@@ -4707,16 +4710,16 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C36" s="5"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" s="5">
         <v>27</v>
@@ -4727,16 +4730,16 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B39" s="5">
         <v>84</v>
@@ -4745,16 +4748,16 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>28</v>
+        <v>194</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C40" s="5"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B41" s="5">
         <v>63</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B42" s="5">
         <v>63</v>
@@ -4772,7 +4775,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B43" s="5">
         <v>63</v>
@@ -4781,16 +4784,16 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C44" s="5"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B45" s="5">
         <v>84</v>
@@ -4800,29 +4803,29 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1" t="s">
-        <v>34</v>
+      <c r="A46" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1" t="s">
-        <v>35</v>
+      <c r="A47" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C48" s="5">
         <v>94</v>
@@ -4830,38 +4833,38 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B52" s="5">
         <v>99</v>
@@ -4870,18 +4873,18 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B54" s="5">
         <v>60</v>
@@ -4890,25 +4893,25 @@
     </row>
     <row r="55" spans="1:3" ht="30">
       <c r="A55" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C55" s="5"/>
     </row>
     <row r="56" spans="1:3" ht="30">
       <c r="A56" s="1" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="B56" s="5">
         <v>108</v>
       </c>
       <c r="C56" s="5"/>
     </row>
-    <row r="57" spans="1:3" ht="45">
+    <row r="57" spans="1:3" ht="30">
       <c r="A57" s="1" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5">
@@ -4917,7 +4920,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B58" s="5">
         <v>110</v>
@@ -4926,10 +4929,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C59" s="5"/>
     </row>
@@ -4959,22 +4962,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30">
       <c r="A1" s="10" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4985,7 +4988,7 @@
         <v>2010</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4993,7 +4996,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5001,7 +5004,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5009,7 +5012,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5017,7 +5020,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5025,7 +5028,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5033,7 +5036,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5041,7 +5044,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5049,7 +5052,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5057,7 +5060,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5065,7 +5068,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5073,7 +5076,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5081,7 +5084,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5089,7 +5092,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5097,7 +5100,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5105,7 +5108,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5113,7 +5116,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5121,7 +5124,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5129,7 +5132,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5137,7 +5140,7 @@
         <v>20</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5145,7 +5148,7 @@
         <v>21</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5153,7 +5156,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5161,7 +5164,7 @@
         <v>23</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5169,7 +5172,7 @@
         <v>24</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5177,7 +5180,7 @@
         <v>25</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5185,7 +5188,7 @@
         <v>26</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5193,7 +5196,7 @@
         <v>27</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -5201,7 +5204,7 @@
         <v>28</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -5209,7 +5212,7 @@
         <v>29</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5217,7 +5220,7 @@
         <v>30</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -5225,7 +5228,7 @@
         <v>31</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -5233,7 +5236,7 @@
         <v>32</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -5241,7 +5244,7 @@
         <v>33</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -5249,7 +5252,7 @@
         <v>34</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -5257,7 +5260,7 @@
         <v>35</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -5265,7 +5268,7 @@
         <v>36</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -5273,7 +5276,7 @@
         <v>37</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -5281,7 +5284,7 @@
         <v>38</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -5289,7 +5292,7 @@
         <v>39</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -5297,7 +5300,7 @@
         <v>40</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -5305,7 +5308,7 @@
         <v>41</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -5313,7 +5316,7 @@
         <v>42</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -5321,7 +5324,7 @@
         <v>43</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -5329,7 +5332,7 @@
         <v>44</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -5337,7 +5340,7 @@
         <v>45</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -5345,7 +5348,7 @@
         <v>46</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -5353,7 +5356,7 @@
         <v>47</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -5361,7 +5364,7 @@
         <v>48</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -5369,7 +5372,7 @@
         <v>49</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -5377,7 +5380,7 @@
         <v>50</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -5385,7 +5388,7 @@
         <v>51</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -5393,7 +5396,7 @@
         <v>52</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -5401,7 +5404,7 @@
         <v>53</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -5409,7 +5412,7 @@
         <v>54</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -5417,7 +5420,7 @@
         <v>55</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -5425,7 +5428,7 @@
         <v>56</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -5433,7 +5436,7 @@
         <v>57</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -5441,7 +5444,7 @@
         <v>58</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -5449,7 +5452,7 @@
         <v>59</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -5457,7 +5460,7 @@
         <v>60</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -5465,7 +5468,7 @@
         <v>61</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -5473,7 +5476,7 @@
         <v>62</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -5481,7 +5484,7 @@
         <v>63</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -5489,7 +5492,7 @@
         <v>64</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -5497,7 +5500,7 @@
         <v>65</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -5505,7 +5508,7 @@
         <v>66</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -5513,7 +5516,7 @@
         <v>67</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -5521,7 +5524,7 @@
         <v>68</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -5529,7 +5532,7 @@
         <v>69</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -5537,7 +5540,7 @@
         <v>70</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -5545,7 +5548,7 @@
         <v>71</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -5553,7 +5556,7 @@
         <v>72</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -5561,7 +5564,7 @@
         <v>73</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -5569,7 +5572,7 @@
         <v>74</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -5577,7 +5580,7 @@
         <v>75</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -5585,7 +5588,7 @@
         <v>76</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -5593,7 +5596,7 @@
         <v>77</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -5601,7 +5604,7 @@
         <v>78</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -5609,7 +5612,7 @@
         <v>79</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -5617,7 +5620,7 @@
         <v>80</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -5625,7 +5628,7 @@
         <v>81</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -5633,7 +5636,7 @@
         <v>82</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -5641,7 +5644,7 @@
         <v>83</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -5649,7 +5652,7 @@
         <v>84</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -5657,7 +5660,7 @@
         <v>85</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -5665,7 +5668,7 @@
         <v>86</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -5673,7 +5676,7 @@
         <v>87</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -5681,7 +5684,7 @@
         <v>88</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -5689,7 +5692,7 @@
         <v>89</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -5697,7 +5700,7 @@
         <v>90</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -5705,7 +5708,7 @@
         <v>91</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -5713,7 +5716,7 @@
         <v>92</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -5721,7 +5724,7 @@
         <v>93</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -5729,7 +5732,7 @@
         <v>94</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -5737,7 +5740,7 @@
         <v>95</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -5745,7 +5748,7 @@
         <v>96</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -5753,7 +5756,7 @@
         <v>97</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -5761,7 +5764,7 @@
         <v>98</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -5769,7 +5772,7 @@
         <v>99</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -5777,7 +5780,7 @@
         <v>100</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -5785,7 +5788,7 @@
         <v>101</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -5793,7 +5796,7 @@
         <v>102</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -5801,7 +5804,7 @@
         <v>103</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -5809,7 +5812,7 @@
         <v>104</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -5817,7 +5820,7 @@
         <v>105</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -5825,7 +5828,7 @@
         <v>106</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -5833,7 +5836,7 @@
         <v>107</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -5841,7 +5844,7 @@
         <v>108</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -5849,7 +5852,7 @@
         <v>109</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -5857,7 +5860,7 @@
         <v>110</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/WM_StudyDatabase.xlsx
+++ b/WM_StudyDatabase.xlsx
@@ -112,9 +112,6 @@
     <t>Subiculum</t>
   </si>
   <si>
-    <t>Temporal Pole</t>
-  </si>
-  <si>
     <t>TEad</t>
   </si>
   <si>
@@ -136,12 +133,6 @@
     <t>VIP</t>
   </si>
   <si>
-    <t>Superior Colliculus</t>
-  </si>
-  <si>
-    <t>Caudate nucleus</t>
-  </si>
-  <si>
     <t>Hippocampus</t>
   </si>
   <si>
@@ -3859,25 +3850,34 @@
     <t>TEa-mp</t>
   </si>
   <si>
-    <t>negative_finding</t>
-  </si>
-  <si>
-    <t>positive_finding</t>
-  </si>
-  <si>
     <t>area</t>
   </si>
   <si>
-    <t>VPL nucl. of thalamus</t>
-  </si>
-  <si>
-    <t>MD nucl. of thalamus</t>
-  </si>
-  <si>
     <t>9-46d</t>
   </si>
   <si>
     <t>9-46v</t>
+  </si>
+  <si>
+    <t>Temporal_Pole</t>
+  </si>
+  <si>
+    <t>Superior_Colliculus</t>
+  </si>
+  <si>
+    <t>MD_nucl_of_thalamus</t>
+  </si>
+  <si>
+    <t>VPL_nucl_of_thalamus</t>
+  </si>
+  <si>
+    <t>Caudate_nucleus</t>
+  </si>
+  <si>
+    <t>positive_findings</t>
+  </si>
+  <si>
+    <t>negative_findings</t>
   </si>
 </sst>
 </file>
@@ -4363,8 +4363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4376,13 +4376,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4399,7 +4399,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3" s="5">
         <v>6</v>
@@ -4410,7 +4410,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -4419,7 +4419,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="5">
         <v>6</v>
@@ -4430,7 +4430,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5">
         <v>6</v>
@@ -4442,7 +4442,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -4459,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5"/>
     </row>
@@ -4468,7 +4468,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" s="5"/>
     </row>
@@ -4477,7 +4477,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="5"/>
     </row>
@@ -4489,7 +4489,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4506,7 +4506,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C14" s="5"/>
     </row>
@@ -4515,7 +4515,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C15" s="5"/>
     </row>
@@ -4524,7 +4524,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C16" s="5"/>
     </row>
@@ -4533,7 +4533,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C17" s="5"/>
     </row>
@@ -4551,7 +4551,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C19" s="5">
         <v>47</v>
@@ -4562,7 +4562,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C20" s="5"/>
     </row>
@@ -4571,7 +4571,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C21" s="5"/>
     </row>
@@ -4580,7 +4580,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C22" s="5"/>
     </row>
@@ -4589,7 +4589,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C23" s="5"/>
     </row>
@@ -4604,24 +4604,24 @@
     </row>
     <row r="25" spans="1:4" ht="60">
       <c r="A25" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60">
       <c r="A26" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D26" s="4"/>
     </row>
@@ -4633,7 +4633,7 @@
         <v>63</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4650,7 +4650,7 @@
         <v>15</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C29" s="5"/>
     </row>
@@ -4659,7 +4659,7 @@
         <v>16</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C30" s="5"/>
     </row>
@@ -4677,7 +4677,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C32" s="5"/>
     </row>
@@ -4686,7 +4686,7 @@
         <v>19</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C33" s="5"/>
     </row>
@@ -4695,7 +4695,7 @@
         <v>20</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C34" s="5"/>
     </row>
@@ -4713,7 +4713,7 @@
         <v>22</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C36" s="5"/>
     </row>
@@ -4734,7 +4734,7 @@
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4748,10 +4748,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C40" s="5"/>
     </row>
@@ -4787,13 +4787,13 @@
         <v>29</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C44" s="5"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="B45" s="5">
         <v>84</v>
@@ -4804,28 +4804,28 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C48" s="5">
         <v>94</v>
@@ -4833,38 +4833,38 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B52" s="5">
         <v>99</v>
@@ -4873,18 +4873,18 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B54" s="5">
         <v>60</v>
@@ -4893,16 +4893,16 @@
     </row>
     <row r="55" spans="1:3" ht="30">
       <c r="A55" s="4" t="s">
-        <v>38</v>
+        <v>198</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C55" s="5"/>
     </row>
     <row r="56" spans="1:3" ht="30">
       <c r="A56" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B56" s="5">
         <v>108</v>
@@ -4920,7 +4920,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="B58" s="5">
         <v>110</v>
@@ -4929,10 +4929,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C59" s="5"/>
     </row>
@@ -4962,22 +4962,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30">
       <c r="A1" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4988,7 +4988,7 @@
         <v>2010</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4996,7 +4996,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5004,7 +5004,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5012,7 +5012,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5020,7 +5020,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5028,7 +5028,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5036,7 +5036,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5044,7 +5044,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5052,7 +5052,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5060,7 +5060,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5068,7 +5068,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5076,7 +5076,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5084,7 +5084,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5092,7 +5092,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5100,7 +5100,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5108,7 +5108,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5116,7 +5116,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5124,7 +5124,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5132,7 +5132,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5140,7 +5140,7 @@
         <v>20</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5148,7 +5148,7 @@
         <v>21</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5156,7 +5156,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5164,7 +5164,7 @@
         <v>23</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5172,7 +5172,7 @@
         <v>24</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5180,7 +5180,7 @@
         <v>25</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5188,7 +5188,7 @@
         <v>26</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5196,7 +5196,7 @@
         <v>27</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -5204,7 +5204,7 @@
         <v>28</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -5212,7 +5212,7 @@
         <v>29</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5220,7 +5220,7 @@
         <v>30</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -5228,7 +5228,7 @@
         <v>31</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -5236,7 +5236,7 @@
         <v>32</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -5244,7 +5244,7 @@
         <v>33</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -5252,7 +5252,7 @@
         <v>34</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -5260,7 +5260,7 @@
         <v>35</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -5268,7 +5268,7 @@
         <v>36</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -5276,7 +5276,7 @@
         <v>37</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -5284,7 +5284,7 @@
         <v>38</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -5292,7 +5292,7 @@
         <v>39</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -5300,7 +5300,7 @@
         <v>40</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -5308,7 +5308,7 @@
         <v>41</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -5316,7 +5316,7 @@
         <v>42</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -5324,7 +5324,7 @@
         <v>43</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -5332,7 +5332,7 @@
         <v>44</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -5340,7 +5340,7 @@
         <v>45</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -5348,7 +5348,7 @@
         <v>46</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -5356,7 +5356,7 @@
         <v>47</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -5364,7 +5364,7 @@
         <v>48</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -5372,7 +5372,7 @@
         <v>49</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -5380,7 +5380,7 @@
         <v>50</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -5388,7 +5388,7 @@
         <v>51</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -5396,7 +5396,7 @@
         <v>52</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -5404,7 +5404,7 @@
         <v>53</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -5412,7 +5412,7 @@
         <v>54</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -5420,7 +5420,7 @@
         <v>55</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -5428,7 +5428,7 @@
         <v>56</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -5436,7 +5436,7 @@
         <v>57</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -5444,7 +5444,7 @@
         <v>58</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -5452,7 +5452,7 @@
         <v>59</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -5460,7 +5460,7 @@
         <v>60</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -5468,7 +5468,7 @@
         <v>61</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -5476,7 +5476,7 @@
         <v>62</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -5484,7 +5484,7 @@
         <v>63</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -5492,7 +5492,7 @@
         <v>64</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -5500,7 +5500,7 @@
         <v>65</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -5508,7 +5508,7 @@
         <v>66</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -5516,7 +5516,7 @@
         <v>67</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -5524,7 +5524,7 @@
         <v>68</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -5532,7 +5532,7 @@
         <v>69</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -5540,7 +5540,7 @@
         <v>70</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -5548,7 +5548,7 @@
         <v>71</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -5556,7 +5556,7 @@
         <v>72</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -5564,7 +5564,7 @@
         <v>73</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -5572,7 +5572,7 @@
         <v>74</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -5580,7 +5580,7 @@
         <v>75</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -5588,7 +5588,7 @@
         <v>76</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -5596,7 +5596,7 @@
         <v>77</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -5604,7 +5604,7 @@
         <v>78</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -5612,7 +5612,7 @@
         <v>79</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -5620,7 +5620,7 @@
         <v>80</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -5628,7 +5628,7 @@
         <v>81</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -5636,7 +5636,7 @@
         <v>82</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -5644,7 +5644,7 @@
         <v>83</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -5652,7 +5652,7 @@
         <v>84</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -5660,7 +5660,7 @@
         <v>85</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -5668,7 +5668,7 @@
         <v>86</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -5676,7 +5676,7 @@
         <v>87</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -5684,7 +5684,7 @@
         <v>88</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -5692,7 +5692,7 @@
         <v>89</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -5700,7 +5700,7 @@
         <v>90</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -5708,7 +5708,7 @@
         <v>91</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -5716,7 +5716,7 @@
         <v>92</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -5724,7 +5724,7 @@
         <v>93</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -5732,7 +5732,7 @@
         <v>94</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -5740,7 +5740,7 @@
         <v>95</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -5748,7 +5748,7 @@
         <v>96</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -5756,7 +5756,7 @@
         <v>97</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -5764,7 +5764,7 @@
         <v>98</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -5772,7 +5772,7 @@
         <v>99</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -5780,7 +5780,7 @@
         <v>100</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -5788,7 +5788,7 @@
         <v>101</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -5796,7 +5796,7 @@
         <v>102</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -5804,7 +5804,7 @@
         <v>103</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -5812,7 +5812,7 @@
         <v>104</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -5820,7 +5820,7 @@
         <v>105</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -5828,7 +5828,7 @@
         <v>106</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -5836,7 +5836,7 @@
         <v>107</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -5844,7 +5844,7 @@
         <v>108</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -5852,7 +5852,7 @@
         <v>109</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -5860,7 +5860,7 @@
         <v>110</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/WM_StudyDatabase.xlsx
+++ b/WM_StudyDatabase.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16580" yWindow="0" windowWidth="32580" windowHeight="21120" tabRatio="500"/>
+    <workbookView xWindow="16580" yWindow="0" windowWidth="32580" windowHeight="21120" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="206">
   <si>
     <t>24a</t>
   </si>
@@ -103,9 +104,6 @@
     <t>STPc</t>
   </si>
   <si>
-    <t>STPl</t>
-  </si>
-  <si>
     <t>STPr</t>
   </si>
   <si>
@@ -3878,6 +3876,15 @@
   </si>
   <si>
     <t>negative_findings</t>
+  </si>
+  <si>
+    <t>STPi</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>reference_number</t>
   </si>
 </sst>
 </file>
@@ -3945,8 +3952,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4009,7 +4018,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4021,6 +4030,7 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4032,6 +4042,7 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4363,8 +4374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4376,13 +4387,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4399,7 +4410,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="5">
         <v>6</v>
@@ -4410,7 +4421,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -4419,7 +4430,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="5">
         <v>6</v>
@@ -4430,7 +4441,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5">
         <v>6</v>
@@ -4442,7 +4453,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4450,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -4459,7 +4470,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5"/>
     </row>
@@ -4468,7 +4479,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="5"/>
     </row>
@@ -4477,7 +4488,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="5"/>
     </row>
@@ -4489,7 +4500,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4498,7 +4509,7 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4506,7 +4517,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="5"/>
     </row>
@@ -4515,7 +4526,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="5"/>
     </row>
@@ -4524,7 +4535,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="5"/>
     </row>
@@ -4533,7 +4544,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="5"/>
     </row>
@@ -4551,7 +4562,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="5">
         <v>47</v>
@@ -4562,7 +4573,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="5"/>
     </row>
@@ -4571,7 +4582,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="5"/>
     </row>
@@ -4580,7 +4591,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="5"/>
     </row>
@@ -4589,7 +4600,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="5"/>
     </row>
@@ -4604,24 +4615,24 @@
     </row>
     <row r="25" spans="1:4" ht="60">
       <c r="A25" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60">
       <c r="A26" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="D26" s="4"/>
     </row>
@@ -4633,7 +4644,7 @@
         <v>63</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4650,7 +4661,7 @@
         <v>15</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="5"/>
     </row>
@@ -4659,7 +4670,7 @@
         <v>16</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="5"/>
     </row>
@@ -4677,7 +4688,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="5"/>
     </row>
@@ -4686,7 +4697,7 @@
         <v>19</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="5"/>
     </row>
@@ -4695,7 +4706,7 @@
         <v>20</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" s="5"/>
     </row>
@@ -4713,7 +4724,7 @@
         <v>22</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="5"/>
     </row>
@@ -4734,7 +4745,7 @@
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4748,10 +4759,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" s="5"/>
     </row>
@@ -4766,7 +4777,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="B42" s="5">
         <v>63</v>
@@ -4775,7 +4786,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" s="5">
         <v>63</v>
@@ -4784,16 +4795,16 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C44" s="5"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B45" s="5">
         <v>84</v>
@@ -4804,28 +4815,28 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="5">
         <v>94</v>
@@ -4833,38 +4844,38 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B52" s="5">
         <v>99</v>
@@ -4873,18 +4884,18 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B54" s="5">
         <v>60</v>
@@ -4893,16 +4904,16 @@
     </row>
     <row r="55" spans="1:3" ht="30">
       <c r="A55" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" s="5"/>
     </row>
     <row r="56" spans="1:3" ht="30">
       <c r="A56" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B56" s="5">
         <v>108</v>
@@ -4911,7 +4922,7 @@
     </row>
     <row r="57" spans="1:3" ht="30">
       <c r="A57" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5">
@@ -4920,7 +4931,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B58" s="5">
         <v>110</v>
@@ -4929,10 +4940,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C59" s="5"/>
     </row>
@@ -4955,40 +4966,37 @@
   <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:7" ht="30">
       <c r="A1" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>2010</v>
-      </c>
       <c r="G2" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4996,7 +5004,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5004,7 +5012,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5012,7 +5020,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5020,7 +5028,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5028,7 +5036,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5036,7 +5044,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5044,7 +5052,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5052,7 +5060,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5060,7 +5068,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5068,7 +5076,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5076,7 +5084,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5084,7 +5092,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5092,7 +5100,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5100,7 +5108,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5108,7 +5116,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5116,7 +5124,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5124,7 +5132,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5132,7 +5140,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5140,7 +5148,7 @@
         <v>20</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5148,7 +5156,7 @@
         <v>21</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5156,7 +5164,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5164,7 +5172,7 @@
         <v>23</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5172,7 +5180,7 @@
         <v>24</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5180,7 +5188,7 @@
         <v>25</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5188,7 +5196,7 @@
         <v>26</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5196,7 +5204,7 @@
         <v>27</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -5204,7 +5212,7 @@
         <v>28</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -5212,7 +5220,7 @@
         <v>29</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5220,7 +5228,7 @@
         <v>30</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -5228,7 +5236,7 @@
         <v>31</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -5236,7 +5244,7 @@
         <v>32</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -5244,7 +5252,7 @@
         <v>33</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -5252,7 +5260,7 @@
         <v>34</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -5260,7 +5268,7 @@
         <v>35</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -5268,7 +5276,7 @@
         <v>36</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -5276,7 +5284,7 @@
         <v>37</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -5284,7 +5292,7 @@
         <v>38</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -5292,7 +5300,7 @@
         <v>39</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -5300,7 +5308,7 @@
         <v>40</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -5308,7 +5316,7 @@
         <v>41</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -5316,7 +5324,7 @@
         <v>42</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -5324,7 +5332,7 @@
         <v>43</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -5332,7 +5340,7 @@
         <v>44</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -5340,7 +5348,7 @@
         <v>45</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -5348,7 +5356,7 @@
         <v>46</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -5356,7 +5364,7 @@
         <v>47</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -5364,7 +5372,7 @@
         <v>48</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -5372,7 +5380,7 @@
         <v>49</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -5380,7 +5388,7 @@
         <v>50</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -5388,7 +5396,7 @@
         <v>51</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -5396,7 +5404,7 @@
         <v>52</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -5404,7 +5412,7 @@
         <v>53</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -5412,7 +5420,7 @@
         <v>54</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -5420,7 +5428,7 @@
         <v>55</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -5428,7 +5436,7 @@
         <v>56</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -5436,7 +5444,7 @@
         <v>57</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -5444,7 +5452,7 @@
         <v>58</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -5452,7 +5460,7 @@
         <v>59</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -5460,7 +5468,7 @@
         <v>60</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -5468,7 +5476,7 @@
         <v>61</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -5476,7 +5484,7 @@
         <v>62</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -5484,7 +5492,7 @@
         <v>63</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -5492,7 +5500,7 @@
         <v>64</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -5500,7 +5508,7 @@
         <v>65</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -5508,7 +5516,7 @@
         <v>66</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -5516,7 +5524,7 @@
         <v>67</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -5524,7 +5532,7 @@
         <v>68</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -5532,7 +5540,7 @@
         <v>69</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -5540,7 +5548,7 @@
         <v>70</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -5548,7 +5556,7 @@
         <v>71</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -5556,7 +5564,7 @@
         <v>72</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -5564,7 +5572,7 @@
         <v>73</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -5572,7 +5580,7 @@
         <v>74</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -5580,7 +5588,7 @@
         <v>75</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -5588,7 +5596,7 @@
         <v>76</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -5596,7 +5604,7 @@
         <v>77</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -5604,7 +5612,7 @@
         <v>78</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -5612,7 +5620,7 @@
         <v>79</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -5620,7 +5628,7 @@
         <v>80</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -5628,7 +5636,7 @@
         <v>81</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -5636,7 +5644,7 @@
         <v>82</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -5644,7 +5652,7 @@
         <v>83</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -5652,7 +5660,7 @@
         <v>84</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -5660,7 +5668,7 @@
         <v>85</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -5668,7 +5676,7 @@
         <v>86</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -5676,7 +5684,7 @@
         <v>87</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -5684,7 +5692,7 @@
         <v>88</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -5692,7 +5700,7 @@
         <v>89</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -5700,7 +5708,7 @@
         <v>90</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -5708,7 +5716,7 @@
         <v>91</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -5716,7 +5724,7 @@
         <v>92</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -5724,7 +5732,7 @@
         <v>93</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -5732,7 +5740,7 @@
         <v>94</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -5740,7 +5748,7 @@
         <v>95</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -5748,7 +5756,7 @@
         <v>96</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -5756,7 +5764,7 @@
         <v>97</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -5764,7 +5772,7 @@
         <v>98</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -5772,7 +5780,7 @@
         <v>99</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -5780,7 +5788,7 @@
         <v>100</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -5788,7 +5796,7 @@
         <v>101</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -5796,7 +5804,7 @@
         <v>102</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -5804,7 +5812,7 @@
         <v>103</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -5812,7 +5820,7 @@
         <v>104</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -5820,7 +5828,7 @@
         <v>105</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -5828,7 +5836,7 @@
         <v>106</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -5836,7 +5844,7 @@
         <v>107</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -5844,7 +5852,7 @@
         <v>108</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -5852,7 +5860,7 @@
         <v>109</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -5860,7 +5868,920 @@
         <v>110</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F111"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30">
+      <c r="A1" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="9">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="9">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="9">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="9">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="9">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="9">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="9">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="9">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="9">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="9">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="9">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="9">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="9">
+        <v>48</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="9">
+        <v>49</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="9">
+        <v>50</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="9">
+        <v>51</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="9">
+        <v>52</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="9">
+        <v>53</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="9">
+        <v>54</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="9">
+        <v>55</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="9">
+        <v>56</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="9">
+        <v>57</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="9">
+        <v>58</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="9">
+        <v>59</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="9">
+        <v>60</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="9">
+        <v>61</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="9">
+        <v>62</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="9">
+        <v>63</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="9">
+        <v>64</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="9">
+        <v>65</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="9">
+        <v>66</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="9">
+        <v>67</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="9">
+        <v>68</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="9">
+        <v>69</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="9">
+        <v>70</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="9">
+        <v>71</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="9">
+        <v>72</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="9">
+        <v>73</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="9">
+        <v>74</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="9">
+        <v>75</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="9">
+        <v>76</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="9">
+        <v>77</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="9">
+        <v>78</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="9">
+        <v>79</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="9">
+        <v>80</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="9">
+        <v>81</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="9">
+        <v>82</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="9">
+        <v>83</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="9">
+        <v>84</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="9">
+        <v>85</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="9">
+        <v>86</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="9">
+        <v>87</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="9">
+        <v>88</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="9">
+        <v>89</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="9">
+        <v>90</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="9">
+        <v>91</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="9">
+        <v>92</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="9">
+        <v>93</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="9">
+        <v>94</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="9">
+        <v>95</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="9">
+        <v>96</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="9">
+        <v>97</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="9">
+        <v>98</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="9">
+        <v>99</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="9">
+        <v>100</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="9">
+        <v>101</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="9">
+        <v>102</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="9">
+        <v>103</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="9">
+        <v>104</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="9">
+        <v>105</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="9">
+        <v>106</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="9">
+        <v>107</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="9">
+        <v>108</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="9">
+        <v>109</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="9">
+        <v>110</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/WM_StudyDatabase.xlsx
+++ b/WM_StudyDatabase.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16580" yWindow="0" windowWidth="32580" windowHeight="21120" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-35760" yWindow="1060" windowWidth="32580" windowHeight="21120" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="AreaFindings" sheetId="1" r:id="rId1"/>
+    <sheet name="References" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="747">
   <si>
     <t>24a</t>
   </si>
@@ -176,12 +178,6 @@
     <t>26,48</t>
   </si>
   <si>
-    <t>25,27,30,31,33,35,36,38,45,49,50,51,52,53,54,54</t>
-  </si>
-  <si>
-    <t>25,27,29,30,31,33,35,36,38,45,48,49,50,51,52,53,54,54</t>
-  </si>
-  <si>
     <t>25,27,38,45,49,52,53,54,55</t>
   </si>
   <si>
@@ -191,12 +187,6 @@
     <t>61,62</t>
   </si>
   <si>
-    <t>5,7,8,9,10,18,21,22,23,24,25,26,27,28,34,35,36,37,38,39,40,45,48,50,51,5,56,57,58,59,60</t>
-  </si>
-  <si>
-    <t>31,32</t>
-  </si>
-  <si>
     <t>64,65,66</t>
   </si>
   <si>
@@ -239,18 +229,12 @@
     <t>96,97</t>
   </si>
   <si>
-    <t>91,98,98</t>
-  </si>
-  <si>
     <t>47,98,101</t>
   </si>
   <si>
     <t>7,84,88,89,90,91,95</t>
   </si>
   <si>
-    <t>102,103,104,105,106,107</t>
-  </si>
-  <si>
     <t>99,100</t>
   </si>
   <si>
@@ -3531,28 +3515,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Cohen, M.R. and Kohn, A. (2011) Measuring and interpreting neuronal correlations. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t>Nature Neuroscience</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t xml:space="preserve"> 14, 811–819</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Takaura, K. </t>
     </r>
     <r>
@@ -3592,7 +3554,29 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Averbeck, B.B. </t>
+      <t xml:space="preserve">Watanabe, Y. and Funahashi, S. (2004) Neuronal activity throughout the primate mediodorsal nucleus of the thalamus during oculomotor delayed-responses. I. Cue-, delay-, and response-period activity. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>Journal of Neurophysiology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t xml:space="preserve"> 92, 1738–1755</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Camarillo, L. </t>
     </r>
     <r>
       <rPr>
@@ -3609,29 +3593,29 @@
         <color theme="1"/>
         <rFont val="Cambria"/>
       </rPr>
-      <t xml:space="preserve"> (2006) Neural correlations, population coding and computation. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t>Nat Rev Neurosci</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t xml:space="preserve"> 7, 358–366</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Moreno-Bote, R. </t>
+      <t xml:space="preserve"> (2012) Coding perceptual discrimination in the somatosensory thalamus. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>PNAS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t xml:space="preserve"> 109, 21093–21098</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hikosaka, O. </t>
     </r>
     <r>
       <rPr>
@@ -3648,29 +3632,86 @@
         <color theme="1"/>
         <rFont val="Cambria"/>
       </rPr>
-      <t xml:space="preserve"> (2014) Information-limiting correlations. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t>Nature Neuroscience</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t xml:space="preserve"> DOI: 10.1038/nn.3807</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Zohary, E. </t>
+      <t xml:space="preserve"> (1989) Functional properties of monkey caudate neurons. I. Activities related to saccadic eye movements. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>Journal of Neurophysiology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t xml:space="preserve"> 61, 780–798</t>
+    </r>
+  </si>
+  <si>
+    <t>Reference_number</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>SII</t>
+  </si>
+  <si>
+    <t>TEa-ma</t>
+  </si>
+  <si>
+    <t>TEa-mp</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>9-46d</t>
+  </si>
+  <si>
+    <t>9-46v</t>
+  </si>
+  <si>
+    <t>Temporal_Pole</t>
+  </si>
+  <si>
+    <t>Superior_Colliculus</t>
+  </si>
+  <si>
+    <t>MD_nucl_of_thalamus</t>
+  </si>
+  <si>
+    <t>VPL_nucl_of_thalamus</t>
+  </si>
+  <si>
+    <t>Caudate_nucleus</t>
+  </si>
+  <si>
+    <t>positive_findings</t>
+  </si>
+  <si>
+    <t>negative_findings</t>
+  </si>
+  <si>
+    <t>STPi</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>reference_number</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Isomura, Y. </t>
     </r>
     <r>
       <rPr>
@@ -3687,211 +3728,1701 @@
         <color theme="1"/>
         <rFont val="Cambria"/>
       </rPr>
-      <t xml:space="preserve"> (1994) Correlated neuronal discharge rate and its implications for psychophysical performance. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t>Nature</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t xml:space="preserve"> 370, 140–143</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Shadlen, M.N. and Newsome, W.T. (1994) Noise, neural codes and cortical organization. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t>Curr. Opin. Neurobiol.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t xml:space="preserve"> 4, 569–579</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Watanabe, Y. and Funahashi, S. (2004) Neuronal activity throughout the primate mediodorsal nucleus of the thalamus during oculomotor delayed-responses. I. Cue-, delay-, and response-period activity. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t>Journal of Neurophysiology</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t xml:space="preserve"> 92, 1738–1755</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Camarillo, L. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t>et al.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t xml:space="preserve"> (2012) Coding perceptual discrimination in the somatosensory thalamus. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t>PNAS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t xml:space="preserve"> 109, 21093–21098</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hikosaka, O. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t>et al.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t xml:space="preserve"> (1989) Functional properties of monkey caudate neurons. I. Activities related to saccadic eye movements. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t>Journal of Neurophysiology</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t xml:space="preserve"> 61, 780–798</t>
-    </r>
-  </si>
-  <si>
-    <t>Reference_number</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>SII</t>
-  </si>
-  <si>
-    <t>TEa-ma</t>
-  </si>
-  <si>
-    <t>TEa-mp</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>9-46d</t>
-  </si>
-  <si>
-    <t>9-46v</t>
-  </si>
-  <si>
-    <t>Temporal_Pole</t>
-  </si>
-  <si>
-    <t>Superior_Colliculus</t>
-  </si>
-  <si>
-    <t>MD_nucl_of_thalamus</t>
-  </si>
-  <si>
-    <t>VPL_nucl_of_thalamus</t>
-  </si>
-  <si>
-    <t>Caudate_nucleus</t>
-  </si>
-  <si>
-    <t>positive_findings</t>
-  </si>
-  <si>
-    <t>negative_findings</t>
-  </si>
-  <si>
-    <t>STPi</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>reference_number</t>
+      <t xml:space="preserve"> (2003) Neural coding of "attention for action" and "response selection" in primate anterior cingulate cortex. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>J. Neurosci.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t xml:space="preserve"> 23, 8002–8012</t>
+    </r>
+  </si>
+  <si>
+    <t>authors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsujimoto, S. et al. </t>
+  </si>
+  <si>
+    <t>Evaluating self-generated decisions in frontal pole cortex of monkeys</t>
+  </si>
+  <si>
+    <t>Rosenkilde, C.E. et al.</t>
+  </si>
+  <si>
+    <t>Single cell activity in ventral prefrontal cortex of behaving monkeys</t>
+  </si>
+  <si>
+    <t>Hikosaka, K. and Watanabe, M.</t>
+  </si>
+  <si>
+    <t>Delay Activity of Orbital and Lateral Prefrontal Neurons of the Monkey Varying with Different Rewards</t>
+  </si>
+  <si>
+    <t>Kennerley, S.W. and Wallis, J.D.</t>
+  </si>
+  <si>
+    <t>Encoding of reward and space during a working memory task in the orbitofrontal cortex and anterior cingulate sulcus</t>
+  </si>
+  <si>
+    <t>Cai, X. and Padoa-Schioppa, C.</t>
+  </si>
+  <si>
+    <t>Contributions of orbitofrontal and lateral prefrontal cortices to economic choice and the good-to-action transformation</t>
+  </si>
+  <si>
+    <t>Tremblay, L. and Schultz, W.</t>
+  </si>
+  <si>
+    <t>Relative reward preference in primate orbitofrontal cortex</t>
+  </si>
+  <si>
+    <t>Freedman, D.J. et al.</t>
+  </si>
+  <si>
+    <t>A comparison of primate prefrontal and inferior temporal cortices during visual categorization</t>
+  </si>
+  <si>
+    <t>Romanski, L.M. and Goldman-Rakic, P.S.</t>
+  </si>
+  <si>
+    <t>An auditory domain in primate prefrontal cortex</t>
+  </si>
+  <si>
+    <t>Wallis, J.D. et al.</t>
+  </si>
+  <si>
+    <t>Single neurons in prefrontal cortex encode abstract rules</t>
+  </si>
+  <si>
+    <t>Categorical representation of visual stimuli in the primate prefrontal cortex</t>
+  </si>
+  <si>
+    <t>Rossi-Pool, R. et al.</t>
+  </si>
+  <si>
+    <t>Emergence of an abstract categorical code enabling the discrimination of temporally structured tactile stimuli</t>
+  </si>
+  <si>
+    <t>Lemus, L. et al.</t>
+  </si>
+  <si>
+    <t>Salinas, E. et al.</t>
+  </si>
+  <si>
+    <t>Periodicity and Firing Rate As Candidate Neural Codes for the Frequency of Vibrotactile Stimuli</t>
+  </si>
+  <si>
+    <t>Akkal, D. et al.</t>
+  </si>
+  <si>
+    <t>Comparison of neuronal activity in the rostral supplementary and cingulate motor areas during a task with cognitive and motor demands</t>
+  </si>
+  <si>
+    <t>Isomura, Y. et al.</t>
+  </si>
+  <si>
+    <t>Neural coding of "attention for action" and "response selection" in primate anterior cingulate cortex</t>
+  </si>
+  <si>
+    <t>Procyk, E. and Joseph, J.P.</t>
+  </si>
+  <si>
+    <t>Characterization of serial order encoding in the monkey anterior cingulate sulcus</t>
+  </si>
+  <si>
+    <t>Niki, H. and Watanabe, M.</t>
+  </si>
+  <si>
+    <t>Prefrontal unit activity and delayed response: Relation to cue location versus direction of response</t>
+  </si>
+  <si>
+    <t>Bernacchia, A. et al.</t>
+  </si>
+  <si>
+    <t>A reservoir of time constants for memory traces in cortical neurons</t>
+  </si>
+  <si>
+    <t>Zhou, Y.D. and Fuster, J.M.</t>
+  </si>
+  <si>
+    <t>Mnemonic neuronal activity in somatosensory cortex</t>
+  </si>
+  <si>
+    <t>Romo, R. et al.</t>
+  </si>
+  <si>
+    <t>Neuronal correlates of parametric working memory in the prefrontal cortex</t>
+  </si>
+  <si>
+    <t>Hwang, J. and Romanski, L.M.</t>
+  </si>
+  <si>
+    <t>Prefrontal neuronal responses during audiovisual mnemonic processing</t>
+  </si>
+  <si>
+    <t>Miller, E.K. et al.</t>
+  </si>
+  <si>
+    <t>Neural mechanisms of visual working memory in prefrontal cortex of the macaque</t>
+  </si>
+  <si>
+    <t>Fuster, J.M. and Alexander, G.E.</t>
+  </si>
+  <si>
+    <t>Neuron activity related to short-term memory</t>
+  </si>
+  <si>
+    <t>Kubota, K. and Niki, H.</t>
+  </si>
+  <si>
+    <t>Prefrontal cortical unit activity and delayed alternation performance in monkeys</t>
+  </si>
+  <si>
+    <t>Markowitz, D.A. et al.</t>
+  </si>
+  <si>
+    <t>Multiple component networks support working memory in prefrontal cortex</t>
+  </si>
+  <si>
+    <t>Wang, L. et al.</t>
+  </si>
+  <si>
+    <t>Differential roles of delay-period neural activity in the monkey dorsolateral prefrontal cortex in visual-haptic crossmodal working memory</t>
+  </si>
+  <si>
+    <t>Mendoza-Halliday, D. et al.</t>
+  </si>
+  <si>
+    <t>Sharp emergence of feature-selective sustained activity along the dorsal visual pathway</t>
+  </si>
+  <si>
+    <t>Crowe, D.A. et al.</t>
+  </si>
+  <si>
+    <t>Prefrontal neurons transmit signals to parietal neurons that reflect executive control of cognition</t>
+  </si>
+  <si>
+    <t>Katsuki, F. and Constantinidis, C.</t>
+  </si>
+  <si>
+    <t>Time course of functional connectivity in primate dorsolateral prefrontal and posterior parietal cortex during working memory</t>
+  </si>
+  <si>
+    <t>Qi, X.-L. and Constantinidis, C.</t>
+  </si>
+  <si>
+    <t>Correlated discharges in the primate prefrontal cortex before and after working memory training</t>
+  </si>
+  <si>
+    <t>Zhou, X. et al.</t>
+  </si>
+  <si>
+    <t>Cholinergic modulation of working memory activity in primate prefrontal cortex</t>
+  </si>
+  <si>
+    <t>Qi, X.-L. et al.</t>
+  </si>
+  <si>
+    <t>Comparison of neural activity related to working memory in primate dorsolateral prefrontal and posterior parietal cortex</t>
+  </si>
+  <si>
+    <t>Meyer, T. et al.</t>
+  </si>
+  <si>
+    <t>Persistent Discharges in the Prefrontal Cortex of Monkeys Naive to Working Memory Tasks</t>
+  </si>
+  <si>
+    <t>Lebedev, M.A. et al.</t>
+  </si>
+  <si>
+    <t>Representation of attended versus remembered locations in prefrontal cortex</t>
+  </si>
+  <si>
+    <t>Constantinidis, C. et al.</t>
+  </si>
+  <si>
+    <t>Coding specificity in cortical microcircuits: a multiple-electrode analysis of primate prefrontal cortex</t>
+  </si>
+  <si>
+    <t>The sensory nature of mnemonic representation in the primate prefrontal cortex</t>
+  </si>
+  <si>
+    <t>Funahashi, S. et al.</t>
+  </si>
+  <si>
+    <t>Prefrontal neuronal activity in rhesus monkeys performing a delayed anti-saccade task</t>
+  </si>
+  <si>
+    <t>Mnemonic coding of visual space in the monkey's dorsolateral prefrontal cortex</t>
+  </si>
+  <si>
+    <t>Batuev, A.S. et al.</t>
+  </si>
+  <si>
+    <t>Comparative characteristics of unit activity in the prefrontal and parietal areas during delayed performance in monkeys</t>
+  </si>
+  <si>
+    <t>Kojima, S. and Goldman-Rakic, P.S.</t>
+  </si>
+  <si>
+    <t>Delay-related activity of prefrontal neurons in rhesus monkeys performing delayed response</t>
+  </si>
+  <si>
+    <t>Bodner, M. et al.</t>
+  </si>
+  <si>
+    <t>Auditory memory cells in dorsolateral prefrontal cortex</t>
+  </si>
+  <si>
+    <t>Koch, K.W. and Fuster, J.M.</t>
+  </si>
+  <si>
+    <t>Unit activity in monkey parietal cortex related to haptic perception and temporary memory</t>
+  </si>
+  <si>
+    <t>Constantinidis, C. and Steinmetz, M.A.</t>
+  </si>
+  <si>
+    <t>Neuronal activity in posterior parietal area 7a during the delay periods of a spatial memory task</t>
+  </si>
+  <si>
+    <t>Rapid sequences of population activity patterns dynamically encode task-critical spatial information in parietal cortex</t>
+  </si>
+  <si>
+    <t>Chafee, M.V. and Goldman-Rakic, P.S.</t>
+  </si>
+  <si>
+    <t>Inactivation of parietal and prefrontal cortex reveals interdependence of neural activity during memory-guided saccades</t>
+  </si>
+  <si>
+    <t>Andersen, R.A. et al.</t>
+  </si>
+  <si>
+    <t>Neurons of area 7 activated by both visual stimuli and oculomotor behavior</t>
+  </si>
+  <si>
+    <t>Ferrera, V.P. et al.</t>
+  </si>
+  <si>
+    <t>Responses of neurons in the parietal and temporal visual pathways during a motion task</t>
+  </si>
+  <si>
+    <t>Fuster, J.M. et al.</t>
+  </si>
+  <si>
+    <t>Cross-modal and cross-temporal association in neurons of frontal cortex</t>
+  </si>
+  <si>
+    <t>Neural correlates of working memory development in adolescent primates</t>
+  </si>
+  <si>
+    <t>Rainer, G. et al.</t>
+  </si>
+  <si>
+    <t>Memory fields of neurons in the primate prefrontal cortex</t>
+  </si>
+  <si>
+    <t>Selective representation of relevant information by neurons in the primate prefrontal cortex</t>
+  </si>
+  <si>
+    <t>Matching patterns of activity in primate prefrontal area 8a and parietal area 7ip neurons during a spatial working memory task</t>
+  </si>
+  <si>
+    <t>Carlson, S. et al.</t>
+  </si>
+  <si>
+    <t>Dissociation of mnemonic coding and other functional neuronal processing in the monkey prefrontal cortex</t>
+  </si>
+  <si>
+    <t>Leavitt, M.L. et al.</t>
+  </si>
+  <si>
+    <t>Correlated variability modifies working memory fidelity in primate prefrontal neuronal ensembles</t>
+  </si>
+  <si>
+    <t>Armstrong, K.M. et al.</t>
+  </si>
+  <si>
+    <t>Selection and Maintenance of Spatial Information by Frontal Eye Field Neurons</t>
+  </si>
+  <si>
+    <t>Lara, A.H. and Wallis, J.D.</t>
+  </si>
+  <si>
+    <t>Executive control processes underlying multi-item working memory</t>
+  </si>
+  <si>
+    <t>Takeda, K. and Funahashi, S.</t>
+  </si>
+  <si>
+    <t>Prefrontal Task-Related Activity Representing Visual Cue Location or Saccade Direction in Spatial Working Memory Tasks</t>
+  </si>
+  <si>
+    <t>Stimulus selectivity in dorsal and ventral prefrontal cortex after training in working memory tasks</t>
+  </si>
+  <si>
+    <t>di Pellegrino, G. and Wise, S.P.</t>
+  </si>
+  <si>
+    <t>Visuospatial versus visuomotor activity in the premotor and prefrontal cortex of a primate</t>
+  </si>
+  <si>
+    <t>Jacob, S.N. and Nieder, A.</t>
+  </si>
+  <si>
+    <t>Complementary Roles for Primate Frontal and Parietal Cortex in Guarding Working Memory from Distractor Stimuli</t>
+  </si>
+  <si>
+    <t>Plakke, B. et al.</t>
+  </si>
+  <si>
+    <t>Neural correlates of auditory recognition memory in primate lateral prefrontal cortex</t>
+  </si>
+  <si>
+    <t>Zaksas, D. and Pasternak, T.</t>
+  </si>
+  <si>
+    <t>Directional signals in the prefrontal cortex and in area MT during a working memory for visual motion task</t>
+  </si>
+  <si>
+    <t>Gottlieb, Y. et al.</t>
+  </si>
+  <si>
+    <t>Single unit activity in the auditory cortex of a monkey performing a short term memory task</t>
+  </si>
+  <si>
+    <t>Bigelow, J. et al.</t>
+  </si>
+  <si>
+    <t>Neural correlates of short-term memory in primate auditory cortex</t>
+  </si>
+  <si>
+    <t>Scott, B.H. et al.</t>
+  </si>
+  <si>
+    <t>Neural correlates of auditory short-term memory in rostral superior temporal cortex</t>
+  </si>
+  <si>
+    <t>Neural codes for perceptual discrimination of acoustic flutter in the primate auditory cortex</t>
+  </si>
+  <si>
+    <t>Suzuki, W.A. et al.</t>
+  </si>
+  <si>
+    <t>Object and place memory in the macaque entorhinal cortex</t>
+  </si>
+  <si>
+    <t>Cisek, P. and Kalaska, J.F.</t>
+  </si>
+  <si>
+    <t>Neural correlates of reaching decisions in dorsal premotor cortex: specification of multiple direction choices and final selection of action</t>
+  </si>
+  <si>
+    <t>Hernandez, A. et al.</t>
+  </si>
+  <si>
+    <t>Temporal evolution of a decision-making process in medial premotor cortex</t>
+  </si>
+  <si>
+    <t>Neural correlates of a postponed decision report</t>
+  </si>
+  <si>
+    <t>Graziano, M.S. et al.</t>
+  </si>
+  <si>
+    <t>Coding the locations of objects in the dark</t>
+  </si>
+  <si>
+    <t>Neuronal correlates of a perceptual decision in ventral premotor cortex</t>
+  </si>
+  <si>
+    <t>Neural encoding of auditory discrimination in ventral premotor cortex</t>
+  </si>
+  <si>
+    <t>Vergara, J. et al.</t>
+  </si>
+  <si>
+    <t>A Neural Parametric Code for Storing Information of More than One Sensory Modality in Working Memory</t>
+  </si>
+  <si>
+    <t>Russo, G.S. and Bruce, C.J.</t>
+  </si>
+  <si>
+    <t>Neurons in the supplementary eye field of rhesus monkeys code visual targets and saccadic eye movements in an oculocentric coordinate system</t>
+  </si>
+  <si>
+    <t>Olson, C.R. and Tremblay, L.</t>
+  </si>
+  <si>
+    <t>Macaque supplementary eye field neurons encode object-centered locations relative to both continuous and discontinuous objects</t>
+  </si>
+  <si>
+    <t>Pesaran, B. et al.</t>
+  </si>
+  <si>
+    <t>Temporal structure in neuronal activity during working memory in macaque parietal cortex</t>
+  </si>
+  <si>
+    <t>Powell, K.D. and Goldberg, M.E.</t>
+  </si>
+  <si>
+    <t>Response of neurons in the lateral intraparietal area to a distractor flashed during the delay period of a memory-guided saccade</t>
+  </si>
+  <si>
+    <t>Colby, C.L. et al.</t>
+  </si>
+  <si>
+    <t>Visual, presaccadic, and cognitive activation of single neurons in monkey lateral intraparietal area</t>
+  </si>
+  <si>
+    <t>Gnadt, J.W. and Andersen, R.A.</t>
+  </si>
+  <si>
+    <t>Memory related motor planning activity in posterior parietal cortex of macaque</t>
+  </si>
+  <si>
+    <t>Freedman, D.J. and Assad, J.A.</t>
+  </si>
+  <si>
+    <t>Experience-dependent representation of visual categories in parietal cortex</t>
+  </si>
+  <si>
+    <t>Seo, H. et al.</t>
+  </si>
+  <si>
+    <t>Lateral Intraparietal Cortex and Reinforcement Learning during a Mixed-Strategy Game</t>
+  </si>
+  <si>
+    <t>Bisley, J.W. et al.</t>
+  </si>
+  <si>
+    <t>Activity of neurons in cortical area MT during a memory for motion task</t>
+  </si>
+  <si>
+    <t>Miyashita, Y. and Chang, H.S.</t>
+  </si>
+  <si>
+    <t>Neuronal correlate of pictorial short-term memory in the primate temporal cortex</t>
+  </si>
+  <si>
+    <t>Cahusac, P.M. et al.</t>
+  </si>
+  <si>
+    <t>Responses of hippocampal formation neurons in the monkey related to delayed spatial response and object-place memory tasks</t>
+  </si>
+  <si>
+    <t>Watanabe, T. and Niki, H.</t>
+  </si>
+  <si>
+    <t>Hippocampal unit activity and delayed response in the monkey</t>
+  </si>
+  <si>
+    <t>Ng, C.-W. et al.</t>
+  </si>
+  <si>
+    <t>Neural correlates of auditory recognition memory in the primate dorsal temporal pole</t>
+  </si>
+  <si>
+    <t>Chelazzi, L. et al.</t>
+  </si>
+  <si>
+    <t>Responses of neurons in inferior temporal cortex during memory-guided visual search</t>
+  </si>
+  <si>
+    <t>Miller, E.K. and Desimone, R.</t>
+  </si>
+  <si>
+    <t>Parallel neuronal mechanisms for short-term memory</t>
+  </si>
+  <si>
+    <t>A neural mechanism for working and recognition memory in inferior temporal cortex</t>
+  </si>
+  <si>
+    <t>Fuster, J.M.</t>
+  </si>
+  <si>
+    <t>Inferotemporal units in selective visual attention and short-term memory</t>
+  </si>
+  <si>
+    <t>Baylis, G.C. and Rolls, E.T.</t>
+  </si>
+  <si>
+    <t>Responses of neurons in the inferior temporal cortex in short term and serial recognition memory tasks</t>
+  </si>
+  <si>
+    <t>Fuster, J.M. and Jervey, J.P.</t>
+  </si>
+  <si>
+    <t>Inferotemporal neurons distinguish and retain behaviorally relevant features of visual stimuli</t>
+  </si>
+  <si>
+    <t>Mikami, A. and Kubota, K.</t>
+  </si>
+  <si>
+    <t>Inferotemporal neuron activities and color discrimination with delay</t>
+  </si>
+  <si>
+    <t>Woloszyn, L. and Sheinberg, D.L.</t>
+  </si>
+  <si>
+    <t>Neural dynamics in inferior temporal cortex during a visual working memory task</t>
+  </si>
+  <si>
+    <t>Supèr, H. et al.</t>
+  </si>
+  <si>
+    <t>A neural correlate of working memory in the monkey primary visual cortex</t>
+  </si>
+  <si>
+    <t>van Kerkoerle, T. et al.</t>
+  </si>
+  <si>
+    <t>Layer-specificity in the effects of attention and working memory on activity in primary visual cortex</t>
+  </si>
+  <si>
+    <t>McAdams, C.J. and Maunsell, J.H.</t>
+  </si>
+  <si>
+    <t>Effects of attention on orientation-tuning functions of single neurons in macaque cortical area V4</t>
+  </si>
+  <si>
+    <t>Luck, S.J. et al.</t>
+  </si>
+  <si>
+    <t>Neural Mechanisms of Spatial Selective Attention in Areas V1, V2, and V4 of Macaque Visual Cortex</t>
+  </si>
+  <si>
+    <t>Hayden, B.Y. and Gallant, J.L.</t>
+  </si>
+  <si>
+    <t>Working memory and decision processes in visual area v4</t>
+  </si>
+  <si>
+    <t>Responses of neurons in macaque area V4 during memory-guided visual search</t>
+  </si>
+  <si>
+    <t>Takaura, K. et al.</t>
+  </si>
+  <si>
+    <t>Neural substrate of spatial memory in the superior colliculus after damage to the primary visual cortex</t>
+  </si>
+  <si>
+    <t>Watanabe, Y. and Funahashi, S.</t>
+  </si>
+  <si>
+    <t>Neuronal activity throughout the primate mediodorsal nucleus of the thalamus during oculomotor delayed-responses. I. Cue-, delay-, and response-period activity</t>
+  </si>
+  <si>
+    <t>Camarillo, L. et al.</t>
+  </si>
+  <si>
+    <t>Coding perceptual discrimination in the somatosensory thalamus</t>
+  </si>
+  <si>
+    <t>Hikosaka, O. et al.</t>
+  </si>
+  <si>
+    <t>Nature Neuroscience 13, 120–126</t>
+  </si>
+  <si>
+    <t>Brain Research 209, 375–394</t>
+  </si>
+  <si>
+    <t>Cerebral Cortex 10, 263–271</t>
+  </si>
+  <si>
+    <t>Journal of Neurophysiology 102, 3352–3364</t>
+  </si>
+  <si>
+    <t>Neuron 81, 1140–1151</t>
+  </si>
+  <si>
+    <t>Nature 398, 704–708</t>
+  </si>
+  <si>
+    <t>The Journal of Neuroscience 23, 5235–5246</t>
+  </si>
+  <si>
+    <t>Nature Neuroscience 5, 15–16</t>
+  </si>
+  <si>
+    <t>Nature 411, 953–956</t>
+  </si>
+  <si>
+    <t>Science 291, 312–316</t>
+  </si>
+  <si>
+    <t>PNAS 113, E7966–E7975</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>Neuron</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t xml:space="preserve"> 67, 335–348</t>
+    </r>
+  </si>
+  <si>
+    <t>The Journal of Neuroscience 20, 5503–5515</t>
+  </si>
+  <si>
+    <t>European Journal of Neuroscience 15, 887–904</t>
+  </si>
+  <si>
+    <t>The Journal of Neuroscience 23, 8002–8012</t>
+  </si>
+  <si>
+    <t>European Journal of Neuroscience 14, 1041–1046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brain Research </t>
+  </si>
+  <si>
+    <t>Nature Neuroscience 14, 366–372</t>
+  </si>
+  <si>
+    <t>PNAS 93, 10533–10537</t>
+  </si>
+  <si>
+    <t>Nature 399, 470–473</t>
+  </si>
+  <si>
+    <t>The Journal of Neuroscience 35, 960–971</t>
+  </si>
+  <si>
+    <t>Journal of Neurosience 16, 5154–5167</t>
+  </si>
+  <si>
+    <t>Science 173, 652–654</t>
+  </si>
+  <si>
+    <t>Journal of Neurophysiology 34, 337–347</t>
+  </si>
+  <si>
+    <t>PNAS 112, 11084–11089</t>
+  </si>
+  <si>
+    <t>PNAS 112, E214–9</t>
+  </si>
+  <si>
+    <t>Nature Neuroscience 17, 1255–1262</t>
+  </si>
+  <si>
+    <t>Nature Neuroscience 16, 1484–1491</t>
+  </si>
+  <si>
+    <t>PLoS ONE 8, e81601</t>
+  </si>
+  <si>
+    <t>European Journal of Neuroscience 36, 3538–3548</t>
+  </si>
+  <si>
+    <t>Journal of Neurophysiology 106, 2180–2188</t>
+  </si>
+  <si>
+    <t>Frontiers in Systems Neuroscience 4, 12</t>
+  </si>
+  <si>
+    <t>Cerebral Cortex 17, i70–i76</t>
+  </si>
+  <si>
+    <t>PLoS Biology 2, e365</t>
+  </si>
+  <si>
+    <t>The Journal of Neuroscience 21, 3646–3655</t>
+  </si>
+  <si>
+    <t>Nature Neuroscience 4, 311–316</t>
+  </si>
+  <si>
+    <t>Nature 365, 753–756</t>
+  </si>
+  <si>
+    <t>Journal of Neurophysiology 61, 331–349</t>
+  </si>
+  <si>
+    <t>Behavioral Brain Research 16, 57–70</t>
+  </si>
+  <si>
+    <t>Brain Research 248, 43–49</t>
+  </si>
+  <si>
+    <t>Neuroreport 7, 1905</t>
+  </si>
+  <si>
+    <t>Experimental Brain Research 76, 292–306</t>
+  </si>
+  <si>
+    <t>Journal of Neurophysiology 76, 1352–1355</t>
+  </si>
+  <si>
+    <t>The Journal of Neuroscience 30, 11640–11653</t>
+  </si>
+  <si>
+    <t>Journal of Neurophysiology 83, 1550–1566</t>
+  </si>
+  <si>
+    <t>Experimental Brain Research 67, 316–322</t>
+  </si>
+  <si>
+    <t>The Journal of Neuroscience 14, 6171–6186</t>
+  </si>
+  <si>
+    <t>Nature 405, 347–351</t>
+  </si>
+  <si>
+    <t>Nature Communications 7, 13423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNAS </t>
+  </si>
+  <si>
+    <t>Nature 393, 577–579</t>
+  </si>
+  <si>
+    <t>Journal of Neurophysiology 79, 2919–2940</t>
+  </si>
+  <si>
+    <t>Journal of Neurophysiology 77, 761–774</t>
+  </si>
+  <si>
+    <t>PNAS 114, E2494–E2503</t>
+  </si>
+  <si>
+    <t>The Journal of Neuroscience 29, 15621–15629</t>
+  </si>
+  <si>
+    <t>Nature Neuroscience DOI: 10.1038/nn.3702</t>
+  </si>
+  <si>
+    <t>Journal of Neurophysiology 87, 567–588</t>
+  </si>
+  <si>
+    <t>The Journal of Neuroscience 31, 6266–6276</t>
+  </si>
+  <si>
+    <t>The Journal of Neuroscience 13, 1227–1243</t>
+  </si>
+  <si>
+    <t>Neuron 83, 226–237</t>
+  </si>
+  <si>
+    <t>Neuroscience 244, 62–76</t>
+  </si>
+  <si>
+    <t>The Journal of Neuroscience 26, 11726–11742</t>
+  </si>
+  <si>
+    <t>Experimental Brain Research 74, 139–148</t>
+  </si>
+  <si>
+    <t>Frontiers in Neuroscience 8, 250</t>
+  </si>
+  <si>
+    <t>Current Biology 24, 2767–2775</t>
+  </si>
+  <si>
+    <t>PNAS 106, 9471–9476</t>
+  </si>
+  <si>
+    <t>Journal of Neurophysiology 78, 1062–1081</t>
+  </si>
+  <si>
+    <t>Neuron 45, 801–814</t>
+  </si>
+  <si>
+    <t>Neuron 33, 959–972</t>
+  </si>
+  <si>
+    <t>PNAS 104, 17174–17179</t>
+  </si>
+  <si>
+    <t>Science 277, 239–241</t>
+  </si>
+  <si>
+    <t>Neuron 41, 165–173</t>
+  </si>
+  <si>
+    <t>PNAS 106, 14640–14645</t>
+  </si>
+  <si>
+    <t>Neuron 89, 54–62</t>
+  </si>
+  <si>
+    <t>Journal of Neurophysiology 76, 825–848</t>
+  </si>
+  <si>
+    <t>Journal of Neurophysiology 83, 2392–2411</t>
+  </si>
+  <si>
+    <t>Nature Neuroscience 5, 805–811</t>
+  </si>
+  <si>
+    <t>Journal of Neurophysiology 84, 301–310</t>
+  </si>
+  <si>
+    <t>Journal of Neurophysiology 76, 2841–2852</t>
+  </si>
+  <si>
+    <t>Experimental Brain Research 70, 216–220</t>
+  </si>
+  <si>
+    <t>Nature 443, 85–88</t>
+  </si>
+  <si>
+    <t>The Journal of Neuroscience 29, 7278–7289</t>
+  </si>
+  <si>
+    <t>Journal of Neurophysiology 91, 286–300</t>
+  </si>
+  <si>
+    <t>Nature 331, 68–70</t>
+  </si>
+  <si>
+    <t>Behavioral Brain Research 33, 229–240</t>
+  </si>
+  <si>
+    <t>Brain Research 325, 241–254</t>
+  </si>
+  <si>
+    <t>Journal of Neurophysiology 111, 455–469</t>
+  </si>
+  <si>
+    <t>Journal of Neurophysiology 80, 2918–2940</t>
+  </si>
+  <si>
+    <t>Science 263, 520–522</t>
+  </si>
+  <si>
+    <t>Science 254, 1377–1379</t>
+  </si>
+  <si>
+    <t>Journal of Neurophysiology 64, 681–697</t>
+  </si>
+  <si>
+    <t>Experimental Brain Research 65, 614–622</t>
+  </si>
+  <si>
+    <t>Science 212, 952–955</t>
+  </si>
+  <si>
+    <t>Brain Research 182, 65–78</t>
+  </si>
+  <si>
+    <t>The Journal of Neuroscience 29, 5494–5507</t>
+  </si>
+  <si>
+    <t>Science 293, 120–124</t>
+  </si>
+  <si>
+    <t>Nature Communications 8, 13804</t>
+  </si>
+  <si>
+    <t>The Journal of Neuroscience 19, 431–441</t>
+  </si>
+  <si>
+    <t>Journal of Neurophysiology 77, 24–42</t>
+  </si>
+  <si>
+    <t>Frontiers in Neuroscience 7, 18</t>
+  </si>
+  <si>
+    <t>Cerebral Cortex 11, 761–772</t>
+  </si>
+  <si>
+    <t>Nature Neuroscience 14, 811–819</t>
+  </si>
+  <si>
+    <t>The Journal of Neuroscience 31, 4233–4241</t>
+  </si>
+  <si>
+    <t>Nat Rev Neurosci 7, 358–366</t>
+  </si>
+  <si>
+    <t>Nature Neuroscience DOI: 10.1038/nn.3807</t>
+  </si>
+  <si>
+    <t>Nature 370, 140–143</t>
+  </si>
+  <si>
+    <t>Current Opinion in Neurobiology 4, 569–579</t>
+  </si>
+  <si>
+    <t>Journal of Neurophysiology 92, 1738–1755</t>
+  </si>
+  <si>
+    <t>PNAS 109, 21093–21098</t>
+  </si>
+  <si>
+    <t>Journal of Neurophysiology 61, 780–798</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Nature Neuroscience</t>
+  </si>
+  <si>
+    <t>Brain Research</t>
+  </si>
+  <si>
+    <t>Cerebral Cortex</t>
+  </si>
+  <si>
+    <t>Journal of Neurophysiology</t>
+  </si>
+  <si>
+    <t>Neuron</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>The Journal of Neuroscience</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>PNAS</t>
+  </si>
+  <si>
+    <t>European Journal of Neuroscience</t>
+  </si>
+  <si>
+    <t>Journal of Neurosience</t>
+  </si>
+  <si>
+    <t>PLoS ONE</t>
+  </si>
+  <si>
+    <t>Frontiers in Systems Neuroscience</t>
+  </si>
+  <si>
+    <t>PLoS Biology</t>
+  </si>
+  <si>
+    <t>Behavioral Brain Research</t>
+  </si>
+  <si>
+    <t>Neuroreport</t>
+  </si>
+  <si>
+    <t>Experimental Brain Research</t>
+  </si>
+  <si>
+    <t>Nature Communications</t>
+  </si>
+  <si>
+    <t>Nature Neuroscience DOI:</t>
+  </si>
+  <si>
+    <t>Neuroscience</t>
+  </si>
+  <si>
+    <t>Frontiers in Neuroscience</t>
+  </si>
+  <si>
+    <t>Current Biology</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>13, 120–126</t>
+  </si>
+  <si>
+    <t>209, 375–394</t>
+  </si>
+  <si>
+    <t>10, 263–271</t>
+  </si>
+  <si>
+    <t>102, 3352–3364</t>
+  </si>
+  <si>
+    <t>81, 1140–1151</t>
+  </si>
+  <si>
+    <t>398, 704–708</t>
+  </si>
+  <si>
+    <t>23, 5235–5246</t>
+  </si>
+  <si>
+    <t>5, 15–16</t>
+  </si>
+  <si>
+    <t>411, 953–956</t>
+  </si>
+  <si>
+    <t>291, 312–316</t>
+  </si>
+  <si>
+    <t>113, E7966–E7975</t>
+  </si>
+  <si>
+    <t>67, 335–348</t>
+  </si>
+  <si>
+    <t>20, 5503–5515</t>
+  </si>
+  <si>
+    <t>15, 887–904</t>
+  </si>
+  <si>
+    <t>23, 8002–8012</t>
+  </si>
+  <si>
+    <t>14, 1041–1046</t>
+  </si>
+  <si>
+    <t>14, 366–372</t>
+  </si>
+  <si>
+    <t>93, 10533–10537</t>
+  </si>
+  <si>
+    <t>399, 470–473</t>
+  </si>
+  <si>
+    <t>35, 960–971</t>
+  </si>
+  <si>
+    <t>16, 5154–5167</t>
+  </si>
+  <si>
+    <t>173, 652–654</t>
+  </si>
+  <si>
+    <t>34, 337–347</t>
+  </si>
+  <si>
+    <t>112, 11084–11089</t>
+  </si>
+  <si>
+    <t>112, E214–9</t>
+  </si>
+  <si>
+    <t>17, 1255–1262</t>
+  </si>
+  <si>
+    <t>16, 1484–1491</t>
+  </si>
+  <si>
+    <t>8, e81601</t>
+  </si>
+  <si>
+    <t>36, 3538–3548</t>
+  </si>
+  <si>
+    <t>106, 2180–2188</t>
+  </si>
+  <si>
+    <t>4, 12</t>
+  </si>
+  <si>
+    <t>17, i70–i76</t>
+  </si>
+  <si>
+    <t>2, e365</t>
+  </si>
+  <si>
+    <t>21, 3646–3655</t>
+  </si>
+  <si>
+    <t>4, 311–316</t>
+  </si>
+  <si>
+    <t>365, 753–756</t>
+  </si>
+  <si>
+    <t>61, 331–349</t>
+  </si>
+  <si>
+    <t>16, 57–70</t>
+  </si>
+  <si>
+    <t>248, 43–49</t>
+  </si>
+  <si>
+    <t>7, 1905</t>
+  </si>
+  <si>
+    <t>76, 292–306</t>
+  </si>
+  <si>
+    <t>76, 1352–1355</t>
+  </si>
+  <si>
+    <t>30, 11640–11653</t>
+  </si>
+  <si>
+    <t>83, 1550–1566</t>
+  </si>
+  <si>
+    <t>67, 316–322</t>
+  </si>
+  <si>
+    <t>14, 6171–6186</t>
+  </si>
+  <si>
+    <t>405, 347–351</t>
+  </si>
+  <si>
+    <t>7, 13423</t>
+  </si>
+  <si>
+    <t>393, 577–579</t>
+  </si>
+  <si>
+    <t>79, 2919–2940</t>
+  </si>
+  <si>
+    <t>77, 761–774</t>
+  </si>
+  <si>
+    <t>114, E2494–E2503</t>
+  </si>
+  <si>
+    <t>29, 15621–15629</t>
+  </si>
+  <si>
+    <t>DOI: 10.1038/nn.3702</t>
+  </si>
+  <si>
+    <t>87, 567–588</t>
+  </si>
+  <si>
+    <t>31, 6266–6276</t>
+  </si>
+  <si>
+    <t>13, 1227–1243</t>
+  </si>
+  <si>
+    <t>83, 226–237</t>
+  </si>
+  <si>
+    <t>244, 62–76</t>
+  </si>
+  <si>
+    <t>26, 11726–11742</t>
+  </si>
+  <si>
+    <t>74, 139–148</t>
+  </si>
+  <si>
+    <t>8, 250</t>
+  </si>
+  <si>
+    <t>24, 2767–2775</t>
+  </si>
+  <si>
+    <t>106, 9471–9476</t>
+  </si>
+  <si>
+    <t>78, 1062–1081</t>
+  </si>
+  <si>
+    <t>45, 801–814</t>
+  </si>
+  <si>
+    <t>33, 959–972</t>
+  </si>
+  <si>
+    <t>104, 17174–17179</t>
+  </si>
+  <si>
+    <t>277, 239–241</t>
+  </si>
+  <si>
+    <t>41, 165–173</t>
+  </si>
+  <si>
+    <t>106, 14640–14645</t>
+  </si>
+  <si>
+    <t>89, 54–62</t>
+  </si>
+  <si>
+    <t>76, 825–848</t>
+  </si>
+  <si>
+    <t>83, 2392–2411</t>
+  </si>
+  <si>
+    <t>5, 805–811</t>
+  </si>
+  <si>
+    <t>84, 301–310</t>
+  </si>
+  <si>
+    <t>76, 2841–2852</t>
+  </si>
+  <si>
+    <t>70, 216–220</t>
+  </si>
+  <si>
+    <t>443, 85–88</t>
+  </si>
+  <si>
+    <t>29, 7278–7289</t>
+  </si>
+  <si>
+    <t>91, 286–300</t>
+  </si>
+  <si>
+    <t>331, 68–70</t>
+  </si>
+  <si>
+    <t>33, 229–240</t>
+  </si>
+  <si>
+    <t>325, 241–254</t>
+  </si>
+  <si>
+    <t>111, 455–469</t>
+  </si>
+  <si>
+    <t>80, 2918–2940</t>
+  </si>
+  <si>
+    <t>263, 520–522</t>
+  </si>
+  <si>
+    <t>254, 1377–1379</t>
+  </si>
+  <si>
+    <t>64, 681–697</t>
+  </si>
+  <si>
+    <t>65, 614–622</t>
+  </si>
+  <si>
+    <t>212, 952–955</t>
+  </si>
+  <si>
+    <t>182, 65–78</t>
+  </si>
+  <si>
+    <t>29, 5494–5507</t>
+  </si>
+  <si>
+    <t>293, 120–124</t>
+  </si>
+  <si>
+    <t>8, 13804</t>
+  </si>
+  <si>
+    <t>19, 431–441</t>
+  </si>
+  <si>
+    <t>77, 24–42</t>
+  </si>
+  <si>
+    <t>7, 18</t>
+  </si>
+  <si>
+    <t>11, 761–772</t>
+  </si>
+  <si>
+    <t>31, 4233–4241</t>
+  </si>
+  <si>
+    <t>92, 1738–1755</t>
+  </si>
+  <si>
+    <t>109, 21093–21098</t>
+  </si>
+  <si>
+    <t>61, 780–798</t>
+  </si>
+  <si>
+    <t>additional_info</t>
+  </si>
+  <si>
+    <t>105, 79–88</t>
+  </si>
+  <si>
+    <t>95, 15008-15013</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/7225799?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/19966838?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/10731221?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/19776363?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/24529981?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/10227292?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/12832548?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/11753413?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/11418860?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/11209083?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/11906531?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/12954861?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/11595043?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/1252960?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/21317906?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/10365959?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/8756444?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26283366?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25540412?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/23995071?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/24260582?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/22934919?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/21795623?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/20514341?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/2767186?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/8871242?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/20810885?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/10712479?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/10830963?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27827365?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/9844006?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/9634233?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/9636098?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/9065848?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/20016076?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/17726005?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15510225?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/11331394?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/11224549?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/4026952?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/7127141?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/8905689?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/24747574?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/11784772?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/21525266?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/8441009?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/24991963?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/2924831?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/9307135?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/11906701?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/17940014?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/9211852?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/14715143?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/8871203?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/10758141?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/12134152?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/10899205?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/8930237?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/3402565?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/19494150?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/3340148?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/2757782?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/3978418?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/24198324?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/9862896?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/8290960?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/1962197?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/3556488?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/6766080?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/19403817?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/21411664?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15140911?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/2723720?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>Functional properties of monkey caudate neurons. I. Activities related to saccadic eye movements</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27872293?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/20670839?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/10884334?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/8927629?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/4998337?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25609614?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/4997822?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25108910?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/8413653?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/2918358?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/3622691?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/7931571?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28275096?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/23583656?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/17093094?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25177266?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25456448?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/19458263?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15748854?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/19667191?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26711117?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/16936716?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/14523065?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/2230917?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/7233192?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28054544?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/9870971?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/9120566?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/23550043?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/11441187?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/11459766?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/23213243?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>link_pubmed</t>
+  </si>
+  <si>
+    <t>91,98,99</t>
+  </si>
+  <si>
+    <t>Do sensory cortices process more than one sensory modality during perceptual judgments?</t>
+  </si>
+  <si>
+    <t>25,27,30,31,33,35,36,38,45,49,50,51,52,53,54</t>
+  </si>
+  <si>
+    <t>25,27,29,30,31,32,33,35,36,38,45,48,49,50,51,52,53,54</t>
+  </si>
+  <si>
+    <t>5,7,8,9,10,18,21,22,23,24,25,26,27,28,34,35,36,37,38,39,40,45,48,50,51,53,56,57,58,59,60</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3934,6 +5465,17 @@
       <color theme="1"/>
       <name val="Cambria"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3952,7 +5494,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3978,8 +5520,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4017,8 +5581,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4031,6 +5597,17 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4043,6 +5620,17 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4374,8 +5962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4387,13 +5975,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4582,7 +6170,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>51</v>
+        <v>744</v>
       </c>
       <c r="C21" s="5"/>
     </row>
@@ -4591,7 +6179,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>52</v>
+        <v>745</v>
       </c>
       <c r="C22" s="5"/>
     </row>
@@ -4600,7 +6188,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" s="5"/>
     </row>
@@ -4615,24 +6203,24 @@
     </row>
     <row r="25" spans="1:4" ht="60">
       <c r="A25" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60">
       <c r="A26" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>56</v>
+        <v>746</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D26" s="4"/>
     </row>
@@ -4644,7 +6232,7 @@
         <v>63</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4661,7 +6249,7 @@
         <v>15</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C29" s="5"/>
     </row>
@@ -4670,7 +6258,7 @@
         <v>16</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C30" s="5"/>
     </row>
@@ -4688,7 +6276,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C32" s="5"/>
     </row>
@@ -4697,7 +6285,7 @@
         <v>19</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C33" s="5"/>
     </row>
@@ -4706,7 +6294,7 @@
         <v>20</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C34" s="5"/>
     </row>
@@ -4724,7 +6312,7 @@
         <v>22</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C36" s="5"/>
     </row>
@@ -4745,7 +6333,7 @@
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4759,10 +6347,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C40" s="5"/>
     </row>
@@ -4777,7 +6365,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B42" s="5">
         <v>63</v>
@@ -4798,13 +6386,13 @@
         <v>28</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C44" s="5"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B45" s="5">
         <v>84</v>
@@ -4815,19 +6403,19 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="12" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="12" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C47" s="5"/>
     </row>
@@ -4836,7 +6424,7 @@
         <v>29</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C48" s="5">
         <v>94</v>
@@ -4847,7 +6435,7 @@
         <v>30</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C49" s="5"/>
     </row>
@@ -4856,10 +6444,10 @@
         <v>31</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4867,10 +6455,10 @@
         <v>32</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>72</v>
+        <v>742</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4887,10 +6475,10 @@
         <v>34</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4902,39 +6490,39 @@
       </c>
       <c r="C54" s="5"/>
     </row>
-    <row r="55" spans="1:3" ht="30">
+    <row r="55" spans="1:3">
       <c r="A55" s="4" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>75</v>
+        <v>737</v>
       </c>
       <c r="C55" s="5"/>
     </row>
     <row r="56" spans="1:3" ht="30">
       <c r="A56" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B56" s="5">
-        <v>108</v>
+        <v>187</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>728</v>
       </c>
       <c r="C56" s="5"/>
     </row>
     <row r="57" spans="1:3" ht="30">
       <c r="A57" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B57" s="5"/>
-      <c r="C57" s="5">
-        <v>109</v>
+      <c r="C57" s="5" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B58" s="5">
-        <v>110</v>
+        <v>189</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>730</v>
       </c>
       <c r="C58" s="5"/>
     </row>
@@ -4943,16 +6531,13 @@
         <v>36</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C59" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <ignoredErrors>
-    <ignoredError sqref="B53 B55" numberStoredAsText="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4963,912 +6548,2454 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:XFD1048576"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="56.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30">
       <c r="A1" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>189</v>
+        <v>194</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>77</v>
+      <c r="B2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2">
+        <v>2010</v>
+      </c>
+      <c r="D2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>78</v>
+      <c r="B3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3">
+        <v>1981</v>
+      </c>
+      <c r="D3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>79</v>
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>80</v>
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5">
+        <v>2009</v>
+      </c>
+      <c r="D5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>81</v>
+      <c r="B6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6">
+        <v>2014</v>
+      </c>
+      <c r="D6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>82</v>
+      <c r="B7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7">
+        <v>1999</v>
+      </c>
+      <c r="D7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>83</v>
+      <c r="B8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8">
+        <v>2003</v>
+      </c>
+      <c r="D8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>84</v>
+      <c r="B9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9">
+        <v>2002</v>
+      </c>
+      <c r="D9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>85</v>
+      <c r="B10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10">
+        <v>2001</v>
+      </c>
+      <c r="D10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>86</v>
+      <c r="B11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11">
+        <v>2001</v>
+      </c>
+      <c r="D11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>87</v>
+      <c r="B12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12">
+        <v>2016</v>
+      </c>
+      <c r="D12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>88</v>
+      <c r="B13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13">
+        <v>2010</v>
+      </c>
+      <c r="D13" t="s">
+        <v>743</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>89</v>
+      <c r="B14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14">
+        <v>2000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>90</v>
+      <c r="B15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15">
+        <v>2002</v>
+      </c>
+      <c r="D15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>91</v>
+      <c r="B16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16">
+        <v>2003</v>
+      </c>
+      <c r="D16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>92</v>
+      <c r="B17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17">
+        <v>2001</v>
+      </c>
+      <c r="D17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>93</v>
+      <c r="B18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18">
+        <v>1976</v>
+      </c>
+      <c r="D18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>94</v>
+      <c r="B19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19">
+        <v>2011</v>
+      </c>
+      <c r="D19" t="s">
+        <v>230</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>95</v>
+      <c r="B20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20">
+        <v>1996</v>
+      </c>
+      <c r="D20" t="s">
+        <v>232</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>96</v>
+      <c r="B21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21">
+        <v>1999</v>
+      </c>
+      <c r="D21" t="s">
+        <v>234</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>97</v>
+      <c r="B22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22">
+        <v>2015</v>
+      </c>
+      <c r="D22" t="s">
+        <v>236</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>98</v>
+      <c r="B23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23">
+        <v>1996</v>
+      </c>
+      <c r="D23" t="s">
+        <v>238</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="9">
         <v>23</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>99</v>
+      <c r="B24" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24">
+        <v>1971</v>
+      </c>
+      <c r="D24" t="s">
+        <v>240</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="9">
         <v>24</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>100</v>
+      <c r="B25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C25">
+        <v>1971</v>
+      </c>
+      <c r="D25" t="s">
+        <v>242</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="9">
         <v>25</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>101</v>
+      <c r="B26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26">
+        <v>2015</v>
+      </c>
+      <c r="D26" t="s">
+        <v>244</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="9">
         <v>26</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>102</v>
+      <c r="B27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27">
+        <v>2015</v>
+      </c>
+      <c r="D27" t="s">
+        <v>246</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="9">
         <v>27</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>103</v>
+      <c r="B28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C28">
+        <v>2014</v>
+      </c>
+      <c r="D28" t="s">
+        <v>248</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="9">
         <v>28</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>104</v>
+      <c r="B29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29">
+        <v>2013</v>
+      </c>
+      <c r="D29" t="s">
+        <v>250</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="9">
         <v>29</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>105</v>
+      <c r="B30" t="s">
+        <v>251</v>
+      </c>
+      <c r="C30">
+        <v>2013</v>
+      </c>
+      <c r="D30" t="s">
+        <v>252</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="9">
         <v>30</v>
       </c>
-      <c r="G31" s="9" t="s">
-        <v>106</v>
+      <c r="B31" t="s">
+        <v>253</v>
+      </c>
+      <c r="C31">
+        <v>2012</v>
+      </c>
+      <c r="D31" t="s">
+        <v>254</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="9">
         <v>31</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>107</v>
+      <c r="B32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C32">
+        <v>2011</v>
+      </c>
+      <c r="D32" t="s">
+        <v>256</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="9">
         <v>32</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>108</v>
+      <c r="B33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C33">
+        <v>2010</v>
+      </c>
+      <c r="D33" t="s">
+        <v>258</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="9">
         <v>33</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>109</v>
+      <c r="B34" t="s">
+        <v>259</v>
+      </c>
+      <c r="C34">
+        <v>2007</v>
+      </c>
+      <c r="D34" t="s">
+        <v>260</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="9">
         <v>34</v>
       </c>
-      <c r="G35" s="9" t="s">
-        <v>110</v>
+      <c r="B35" t="s">
+        <v>261</v>
+      </c>
+      <c r="C35">
+        <v>2004</v>
+      </c>
+      <c r="D35" t="s">
+        <v>262</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="9">
         <v>35</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>111</v>
+      <c r="B36" t="s">
+        <v>263</v>
+      </c>
+      <c r="C36">
+        <v>2001</v>
+      </c>
+      <c r="D36" t="s">
+        <v>264</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="9">
         <v>36</v>
       </c>
-      <c r="G37" s="9" t="s">
-        <v>112</v>
+      <c r="B37" t="s">
+        <v>263</v>
+      </c>
+      <c r="C37">
+        <v>2001</v>
+      </c>
+      <c r="D37" t="s">
+        <v>265</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="9">
         <v>37</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>113</v>
+      <c r="B38" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38">
+        <v>1993</v>
+      </c>
+      <c r="D38" t="s">
+        <v>267</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="9">
         <v>38</v>
       </c>
-      <c r="G39" s="9" t="s">
-        <v>114</v>
+      <c r="B39" t="s">
+        <v>266</v>
+      </c>
+      <c r="C39">
+        <v>1989</v>
+      </c>
+      <c r="D39" t="s">
+        <v>268</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="9">
         <v>39</v>
       </c>
-      <c r="G40" s="9" t="s">
-        <v>115</v>
+      <c r="B40" t="s">
+        <v>269</v>
+      </c>
+      <c r="C40">
+        <v>1985</v>
+      </c>
+      <c r="D40" t="s">
+        <v>270</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="9">
         <v>40</v>
       </c>
-      <c r="G41" s="9" t="s">
-        <v>116</v>
+      <c r="B41" t="s">
+        <v>271</v>
+      </c>
+      <c r="C41">
+        <v>1982</v>
+      </c>
+      <c r="D41" t="s">
+        <v>272</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="9">
         <v>41</v>
       </c>
-      <c r="G42" s="9" t="s">
-        <v>117</v>
+      <c r="B42" t="s">
+        <v>273</v>
+      </c>
+      <c r="C42">
+        <v>1996</v>
+      </c>
+      <c r="D42" t="s">
+        <v>274</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="9">
         <v>42</v>
       </c>
-      <c r="G43" s="9" t="s">
-        <v>118</v>
+      <c r="B43" t="s">
+        <v>275</v>
+      </c>
+      <c r="C43">
+        <v>1989</v>
+      </c>
+      <c r="D43" t="s">
+        <v>276</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="9">
         <v>43</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>119</v>
+      <c r="B44" t="s">
+        <v>277</v>
+      </c>
+      <c r="C44">
+        <v>1996</v>
+      </c>
+      <c r="D44" t="s">
+        <v>278</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="9">
         <v>44</v>
       </c>
-      <c r="G45" s="9" t="s">
-        <v>120</v>
+      <c r="B45" t="s">
+        <v>249</v>
+      </c>
+      <c r="C45">
+        <v>2010</v>
+      </c>
+      <c r="D45" t="s">
+        <v>279</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="9">
         <v>45</v>
       </c>
-      <c r="G46" s="9" t="s">
-        <v>121</v>
+      <c r="B46" t="s">
+        <v>280</v>
+      </c>
+      <c r="C46">
+        <v>2000</v>
+      </c>
+      <c r="D46" t="s">
+        <v>281</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="9">
         <v>46</v>
       </c>
-      <c r="G47" s="9" t="s">
-        <v>122</v>
+      <c r="B47" t="s">
+        <v>282</v>
+      </c>
+      <c r="C47">
+        <v>1987</v>
+      </c>
+      <c r="D47" t="s">
+        <v>283</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="9">
         <v>47</v>
       </c>
-      <c r="G48" s="9" t="s">
-        <v>123</v>
+      <c r="B48" t="s">
+        <v>284</v>
+      </c>
+      <c r="C48">
+        <v>1994</v>
+      </c>
+      <c r="D48" t="s">
+        <v>285</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="9">
         <v>48</v>
       </c>
-      <c r="G49" s="9" t="s">
-        <v>124</v>
+      <c r="B49" t="s">
+        <v>286</v>
+      </c>
+      <c r="C49">
+        <v>2000</v>
+      </c>
+      <c r="D49" t="s">
+        <v>287</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="9">
         <v>49</v>
       </c>
-      <c r="G50" s="9" t="s">
-        <v>125</v>
+      <c r="B50" t="s">
+        <v>255</v>
+      </c>
+      <c r="C50">
+        <v>2016</v>
+      </c>
+      <c r="D50" t="s">
+        <v>288</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="9">
         <v>50</v>
       </c>
-      <c r="G51" s="9" t="s">
-        <v>126</v>
+      <c r="B51" t="s">
+        <v>289</v>
+      </c>
+      <c r="C51">
+        <v>1998</v>
+      </c>
+      <c r="D51" t="s">
+        <v>290</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>630</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="9">
         <v>51</v>
       </c>
-      <c r="G52" s="9" t="s">
-        <v>127</v>
+      <c r="B52" t="s">
+        <v>289</v>
+      </c>
+      <c r="C52">
+        <v>1998</v>
+      </c>
+      <c r="D52" t="s">
+        <v>291</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="9">
         <v>52</v>
       </c>
-      <c r="G53" s="9" t="s">
-        <v>128</v>
+      <c r="B53" t="s">
+        <v>280</v>
+      </c>
+      <c r="C53">
+        <v>1998</v>
+      </c>
+      <c r="D53" t="s">
+        <v>292</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="9">
         <v>53</v>
       </c>
-      <c r="G54" s="9" t="s">
-        <v>129</v>
+      <c r="B54" t="s">
+        <v>293</v>
+      </c>
+      <c r="C54">
+        <v>1997</v>
+      </c>
+      <c r="D54" t="s">
+        <v>294</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="9">
         <v>54</v>
       </c>
-      <c r="G55" s="9" t="s">
-        <v>130</v>
+      <c r="B55" t="s">
+        <v>295</v>
+      </c>
+      <c r="C55">
+        <v>2017</v>
+      </c>
+      <c r="D55" t="s">
+        <v>296</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="9">
         <v>55</v>
       </c>
-      <c r="G56" s="9" t="s">
-        <v>131</v>
+      <c r="B56" t="s">
+        <v>297</v>
+      </c>
+      <c r="C56">
+        <v>2009</v>
+      </c>
+      <c r="D56" t="s">
+        <v>298</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="9">
         <v>56</v>
       </c>
-      <c r="G57" s="9" t="s">
-        <v>132</v>
+      <c r="B57" t="s">
+        <v>299</v>
+      </c>
+      <c r="C57">
+        <v>2014</v>
+      </c>
+      <c r="D57" t="s">
+        <v>300</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="9">
         <v>57</v>
       </c>
-      <c r="G58" s="9" t="s">
-        <v>133</v>
+      <c r="B58" t="s">
+        <v>301</v>
+      </c>
+      <c r="C58">
+        <v>2002</v>
+      </c>
+      <c r="D58" t="s">
+        <v>302</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="9">
         <v>58</v>
       </c>
-      <c r="G59" s="9" t="s">
-        <v>134</v>
+      <c r="B59" t="s">
+        <v>259</v>
+      </c>
+      <c r="C59">
+        <v>2011</v>
+      </c>
+      <c r="D59" t="s">
+        <v>303</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="9">
         <v>59</v>
       </c>
-      <c r="G60" s="9" t="s">
-        <v>135</v>
+      <c r="B60" t="s">
+        <v>304</v>
+      </c>
+      <c r="C60">
+        <v>1993</v>
+      </c>
+      <c r="D60" t="s">
+        <v>305</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="9">
         <v>60</v>
       </c>
-      <c r="G61" s="9" t="s">
-        <v>136</v>
+      <c r="B61" t="s">
+        <v>306</v>
+      </c>
+      <c r="C61">
+        <v>2014</v>
+      </c>
+      <c r="D61" t="s">
+        <v>307</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="9">
         <v>61</v>
       </c>
-      <c r="G62" s="9" t="s">
-        <v>137</v>
+      <c r="B62" t="s">
+        <v>308</v>
+      </c>
+      <c r="C62">
+        <v>2013</v>
+      </c>
+      <c r="D62" t="s">
+        <v>309</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="9">
         <v>62</v>
       </c>
-      <c r="G63" s="9" t="s">
-        <v>138</v>
+      <c r="B63" t="s">
+        <v>310</v>
+      </c>
+      <c r="C63">
+        <v>2006</v>
+      </c>
+      <c r="D63" t="s">
+        <v>311</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>584</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="9">
         <v>63</v>
       </c>
-      <c r="G64" s="9" t="s">
-        <v>139</v>
+      <c r="B64" t="s">
+        <v>312</v>
+      </c>
+      <c r="C64">
+        <v>1989</v>
+      </c>
+      <c r="D64" t="s">
+        <v>313</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="9">
         <v>64</v>
       </c>
-      <c r="G65" s="9" t="s">
-        <v>140</v>
+      <c r="B65" t="s">
+        <v>314</v>
+      </c>
+      <c r="C65">
+        <v>2014</v>
+      </c>
+      <c r="D65" t="s">
+        <v>315</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="9">
         <v>65</v>
       </c>
-      <c r="G66" s="9" t="s">
-        <v>141</v>
+      <c r="B66" t="s">
+        <v>316</v>
+      </c>
+      <c r="C66">
+        <v>2014</v>
+      </c>
+      <c r="D66" t="s">
+        <v>317</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="9">
         <v>66</v>
       </c>
-      <c r="G67" s="9" t="s">
-        <v>142</v>
+      <c r="B67" t="s">
+        <v>218</v>
+      </c>
+      <c r="C67">
+        <v>2009</v>
+      </c>
+      <c r="D67" t="s">
+        <v>318</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>588</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="9">
         <v>67</v>
       </c>
-      <c r="G68" s="9" t="s">
-        <v>143</v>
+      <c r="B68" t="s">
+        <v>319</v>
+      </c>
+      <c r="C68">
+        <v>1997</v>
+      </c>
+      <c r="D68" t="s">
+        <v>320</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="9">
         <v>68</v>
       </c>
-      <c r="G69" s="9" t="s">
-        <v>144</v>
+      <c r="B69" t="s">
+        <v>321</v>
+      </c>
+      <c r="C69">
+        <v>2005</v>
+      </c>
+      <c r="D69" t="s">
+        <v>322</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="9">
         <v>69</v>
       </c>
-      <c r="G70" s="9" t="s">
-        <v>145</v>
+      <c r="B70" t="s">
+        <v>323</v>
+      </c>
+      <c r="C70">
+        <v>2002</v>
+      </c>
+      <c r="D70" t="s">
+        <v>324</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="9">
         <v>70</v>
       </c>
-      <c r="G71" s="9" t="s">
-        <v>146</v>
+      <c r="B71" t="s">
+        <v>218</v>
+      </c>
+      <c r="C71">
+        <v>2007</v>
+      </c>
+      <c r="D71" t="s">
+        <v>325</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="9">
         <v>71</v>
       </c>
-      <c r="G72" s="9" t="s">
-        <v>147</v>
+      <c r="B72" t="s">
+        <v>326</v>
+      </c>
+      <c r="C72">
+        <v>1997</v>
+      </c>
+      <c r="D72" t="s">
+        <v>327</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="9">
         <v>72</v>
       </c>
-      <c r="G73" s="9" t="s">
-        <v>148</v>
+      <c r="B73" t="s">
+        <v>233</v>
+      </c>
+      <c r="C73">
+        <v>2004</v>
+      </c>
+      <c r="D73" t="s">
+        <v>328</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="9">
         <v>73</v>
       </c>
-      <c r="G74" s="9" t="s">
-        <v>149</v>
+      <c r="B74" t="s">
+        <v>218</v>
+      </c>
+      <c r="C74">
+        <v>2009</v>
+      </c>
+      <c r="D74" t="s">
+        <v>329</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="9">
         <v>74</v>
       </c>
-      <c r="G75" s="9" t="s">
-        <v>150</v>
+      <c r="B75" t="s">
+        <v>330</v>
+      </c>
+      <c r="C75">
+        <v>2016</v>
+      </c>
+      <c r="D75" t="s">
+        <v>331</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="9">
         <v>75</v>
       </c>
-      <c r="G76" s="9" t="s">
-        <v>151</v>
+      <c r="B76" t="s">
+        <v>332</v>
+      </c>
+      <c r="C76">
+        <v>1996</v>
+      </c>
+      <c r="D76" t="s">
+        <v>333</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="9">
         <v>76</v>
       </c>
-      <c r="G77" s="9" t="s">
-        <v>152</v>
+      <c r="B77" t="s">
+        <v>334</v>
+      </c>
+      <c r="C77">
+        <v>2000</v>
+      </c>
+      <c r="D77" t="s">
+        <v>335</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="9">
         <v>77</v>
       </c>
-      <c r="G78" s="9" t="s">
-        <v>153</v>
+      <c r="B78" t="s">
+        <v>336</v>
+      </c>
+      <c r="C78">
+        <v>2002</v>
+      </c>
+      <c r="D78" t="s">
+        <v>337</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="9">
         <v>78</v>
       </c>
-      <c r="G79" s="9" t="s">
-        <v>154</v>
+      <c r="B79" t="s">
+        <v>338</v>
+      </c>
+      <c r="C79">
+        <v>2000</v>
+      </c>
+      <c r="D79" t="s">
+        <v>339</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="9">
         <v>79</v>
       </c>
-      <c r="G80" s="9" t="s">
-        <v>155</v>
+      <c r="B80" t="s">
+        <v>340</v>
+      </c>
+      <c r="C80">
+        <v>1996</v>
+      </c>
+      <c r="D80" t="s">
+        <v>341</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="9">
         <v>80</v>
       </c>
-      <c r="G81" s="9" t="s">
-        <v>156</v>
+      <c r="B81" t="s">
+        <v>342</v>
+      </c>
+      <c r="C81">
+        <v>1988</v>
+      </c>
+      <c r="D81" t="s">
+        <v>343</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="9">
         <v>81</v>
       </c>
-      <c r="G82" s="9" t="s">
-        <v>157</v>
+      <c r="B82" t="s">
+        <v>344</v>
+      </c>
+      <c r="C82">
+        <v>2006</v>
+      </c>
+      <c r="D82" t="s">
+        <v>345</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="9">
         <v>82</v>
       </c>
-      <c r="G83" s="9" t="s">
-        <v>158</v>
+      <c r="B83" t="s">
+        <v>346</v>
+      </c>
+      <c r="C83">
+        <v>2009</v>
+      </c>
+      <c r="D83" t="s">
+        <v>347</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="9">
         <v>83</v>
       </c>
-      <c r="G84" s="9" t="s">
-        <v>159</v>
+      <c r="B84" t="s">
+        <v>348</v>
+      </c>
+      <c r="C84">
+        <v>2004</v>
+      </c>
+      <c r="D84" t="s">
+        <v>349</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="9">
         <v>84</v>
       </c>
-      <c r="G85" s="9" t="s">
-        <v>160</v>
+      <c r="B85" t="s">
+        <v>350</v>
+      </c>
+      <c r="C85">
+        <v>1988</v>
+      </c>
+      <c r="D85" t="s">
+        <v>351</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="9">
         <v>85</v>
       </c>
-      <c r="G86" s="9" t="s">
-        <v>161</v>
+      <c r="B86" t="s">
+        <v>352</v>
+      </c>
+      <c r="C86">
+        <v>1989</v>
+      </c>
+      <c r="D86" t="s">
+        <v>353</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="9">
         <v>86</v>
       </c>
-      <c r="G87" s="9" t="s">
-        <v>162</v>
+      <c r="B87" t="s">
+        <v>354</v>
+      </c>
+      <c r="C87">
+        <v>1985</v>
+      </c>
+      <c r="D87" t="s">
+        <v>355</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="9">
         <v>87</v>
       </c>
-      <c r="G88" s="9" t="s">
-        <v>163</v>
+      <c r="B88" t="s">
+        <v>356</v>
+      </c>
+      <c r="C88">
+        <v>2014</v>
+      </c>
+      <c r="D88" t="s">
+        <v>357</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="9">
         <v>88</v>
       </c>
-      <c r="G89" s="9" t="s">
-        <v>164</v>
+      <c r="B89" t="s">
+        <v>358</v>
+      </c>
+      <c r="C89">
+        <v>1998</v>
+      </c>
+      <c r="D89" t="s">
+        <v>359</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="9">
         <v>89</v>
       </c>
-      <c r="G90" s="9" t="s">
-        <v>165</v>
+      <c r="B90" t="s">
+        <v>360</v>
+      </c>
+      <c r="C90">
+        <v>1994</v>
+      </c>
+      <c r="D90" t="s">
+        <v>361</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="9">
         <v>90</v>
       </c>
-      <c r="G91" s="9" t="s">
-        <v>166</v>
+      <c r="B91" t="s">
+        <v>237</v>
+      </c>
+      <c r="C91">
+        <v>1991</v>
+      </c>
+      <c r="D91" t="s">
+        <v>362</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="9">
         <v>91</v>
       </c>
-      <c r="G92" s="9" t="s">
-        <v>167</v>
+      <c r="B92" t="s">
+        <v>363</v>
+      </c>
+      <c r="C92">
+        <v>1990</v>
+      </c>
+      <c r="D92" t="s">
+        <v>364</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="9">
         <v>92</v>
       </c>
-      <c r="G93" s="9" t="s">
-        <v>168</v>
+      <c r="B93" t="s">
+        <v>365</v>
+      </c>
+      <c r="C93">
+        <v>1987</v>
+      </c>
+      <c r="D93" t="s">
+        <v>366</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="9">
         <v>93</v>
       </c>
-      <c r="G94" s="9" t="s">
-        <v>169</v>
+      <c r="B94" t="s">
+        <v>367</v>
+      </c>
+      <c r="C94">
+        <v>1981</v>
+      </c>
+      <c r="D94" t="s">
+        <v>368</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="9">
         <v>94</v>
       </c>
-      <c r="G95" s="9" t="s">
-        <v>170</v>
+      <c r="B95" t="s">
+        <v>369</v>
+      </c>
+      <c r="C95">
+        <v>1980</v>
+      </c>
+      <c r="D95" t="s">
+        <v>370</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="9">
         <v>95</v>
       </c>
-      <c r="G96" s="9" t="s">
-        <v>171</v>
+      <c r="B96" t="s">
+        <v>371</v>
+      </c>
+      <c r="C96">
+        <v>2009</v>
+      </c>
+      <c r="D96" t="s">
+        <v>372</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="9">
         <v>96</v>
       </c>
-      <c r="G97" s="9" t="s">
-        <v>172</v>
+      <c r="B97" t="s">
+        <v>373</v>
+      </c>
+      <c r="C97">
+        <v>2001</v>
+      </c>
+      <c r="D97" t="s">
+        <v>374</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="9">
         <v>97</v>
       </c>
-      <c r="G98" s="9" t="s">
-        <v>173</v>
+      <c r="B98" t="s">
+        <v>375</v>
+      </c>
+      <c r="C98">
+        <v>2017</v>
+      </c>
+      <c r="D98" t="s">
+        <v>376</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="9">
         <v>98</v>
       </c>
-      <c r="G99" s="9" t="s">
-        <v>174</v>
+      <c r="B99" t="s">
+        <v>377</v>
+      </c>
+      <c r="C99">
+        <v>1999</v>
+      </c>
+      <c r="D99" t="s">
+        <v>378</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="9">
         <v>99</v>
       </c>
-      <c r="G100" s="9" t="s">
-        <v>175</v>
+      <c r="B100" t="s">
+        <v>379</v>
+      </c>
+      <c r="C100">
+        <v>1997</v>
+      </c>
+      <c r="D100" t="s">
+        <v>380</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="9">
         <v>100</v>
       </c>
-      <c r="G101" s="9" t="s">
-        <v>176</v>
+      <c r="B101" t="s">
+        <v>381</v>
+      </c>
+      <c r="C101">
+        <v>2013</v>
+      </c>
+      <c r="D101" t="s">
+        <v>382</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="9">
         <v>101</v>
       </c>
-      <c r="G102" s="9" t="s">
-        <v>177</v>
+      <c r="B102" t="s">
+        <v>358</v>
+      </c>
+      <c r="C102">
+        <v>2001</v>
+      </c>
+      <c r="D102" t="s">
+        <v>383</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="F102" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="9">
         <v>102</v>
       </c>
-      <c r="G103" s="9" t="s">
-        <v>178</v>
+      <c r="B103" t="s">
+        <v>384</v>
+      </c>
+      <c r="C103">
+        <v>2011</v>
+      </c>
+      <c r="D103" t="s">
+        <v>385</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="9">
         <v>103</v>
       </c>
-      <c r="G104" s="9" t="s">
-        <v>179</v>
+      <c r="B104" t="s">
+        <v>386</v>
+      </c>
+      <c r="C104">
+        <v>2004</v>
+      </c>
+      <c r="D104" t="s">
+        <v>387</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="9">
         <v>104</v>
       </c>
-      <c r="G105" s="9" t="s">
-        <v>180</v>
+      <c r="B105" t="s">
+        <v>388</v>
+      </c>
+      <c r="C105">
+        <v>2012</v>
+      </c>
+      <c r="D105" t="s">
+        <v>389</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="9">
         <v>105</v>
       </c>
-      <c r="G106" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="9">
-        <v>106</v>
-      </c>
-      <c r="G107" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="9">
-        <v>107</v>
-      </c>
-      <c r="G108" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="9">
-        <v>108</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="9">
-        <v>109</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="9">
-        <v>110</v>
-      </c>
-      <c r="G111" s="9" t="s">
-        <v>186</v>
+      <c r="B106" t="s">
+        <v>390</v>
+      </c>
+      <c r="C106">
+        <v>1989</v>
+      </c>
+      <c r="D106" t="s">
+        <v>704</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="F106" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>703</v>
       </c>
     </row>
   </sheetData>
@@ -5884,20 +9011,901 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30">
+      <c r="A1" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="9">
+        <v>34</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="9">
+        <v>37</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="9">
+        <v>38</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="9">
+        <v>39</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="9">
+        <v>40</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="9">
+        <v>41</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="9">
+        <v>42</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="9">
+        <v>43</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="9">
+        <v>44</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="9">
+        <v>45</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="9">
+        <v>46</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="9">
+        <v>47</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="9">
+        <v>48</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="9">
+        <v>49</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="9">
+        <v>50</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="9">
+        <v>51</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="9">
+        <v>52</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="9">
+        <v>53</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="9">
+        <v>54</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="9">
+        <v>55</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="9">
+        <v>56</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="9">
+        <v>57</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="9">
+        <v>58</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="9">
+        <v>59</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="9">
+        <v>60</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="9">
+        <v>61</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="9">
+        <v>62</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="9">
+        <v>63</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="9">
+        <v>64</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="9">
+        <v>65</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="9">
+        <v>66</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="9">
+        <v>67</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="9">
+        <v>68</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="9">
+        <v>69</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="9">
+        <v>70</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="9">
+        <v>71</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="9">
+        <v>72</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="9">
+        <v>73</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="9">
+        <v>74</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="9">
+        <v>75</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="9">
+        <v>76</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="9">
+        <v>77</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="9">
+        <v>78</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="9">
+        <v>79</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="9">
+        <v>80</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="9">
+        <v>81</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="9">
+        <v>82</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="9">
+        <v>83</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="9">
+        <v>84</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="9">
+        <v>85</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="9">
+        <v>86</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="9">
+        <v>87</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="9">
+        <v>88</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="9">
+        <v>89</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="9">
+        <v>90</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="9">
+        <v>91</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="9">
+        <v>92</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="9">
+        <v>93</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="9">
+        <v>94</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="9">
+        <v>95</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="9">
+        <v>96</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="9">
+        <v>97</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="9">
+        <v>98</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="9">
+        <v>99</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="9">
+        <v>100</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="9">
+        <v>101</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="9">
+        <v>102</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="9">
+        <v>103</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="9">
+        <v>104</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="9">
+        <v>105</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F106"/>
+  <sheetViews>
+    <sheetView topLeftCell="A94" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:6" ht="30">
       <c r="A1" s="10" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -5909,7 +9917,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5917,7 +9925,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5925,7 +9933,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5933,7 +9941,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5941,7 +9949,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5949,7 +9957,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5957,7 +9965,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5965,7 +9973,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5973,7 +9981,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5981,7 +9989,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5989,7 +9997,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5997,7 +10005,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6005,7 +10013,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6013,7 +10021,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6021,7 +10029,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6029,7 +10037,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6037,7 +10045,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6045,7 +10053,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -6053,7 +10061,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -6061,7 +10069,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -6069,7 +10077,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6077,7 +10085,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6085,7 +10093,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6093,7 +10101,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6101,7 +10109,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6109,7 +10117,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6117,7 +10125,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6125,7 +10133,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6133,7 +10141,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6141,7 +10149,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -6149,7 +10157,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6157,7 +10165,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -6165,7 +10173,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -6173,7 +10181,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -6181,7 +10189,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -6189,7 +10197,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -6197,7 +10205,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -6205,7 +10213,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -6213,7 +10221,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -6221,7 +10229,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -6229,7 +10237,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -6237,7 +10245,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -6245,7 +10253,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -6253,7 +10261,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -6261,7 +10269,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -6269,7 +10277,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -6277,7 +10285,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -6285,7 +10293,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -6293,7 +10301,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -6301,7 +10309,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -6309,7 +10317,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -6317,7 +10325,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -6325,7 +10333,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -6333,7 +10341,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -6341,7 +10349,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -6349,7 +10357,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -6357,7 +10365,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -6365,7 +10373,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -6373,7 +10381,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -6381,7 +10389,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -6389,7 +10397,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -6397,7 +10405,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -6405,7 +10413,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -6413,7 +10421,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -6421,7 +10429,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -6429,7 +10437,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -6437,7 +10445,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -6445,7 +10453,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -6453,7 +10461,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -6461,7 +10469,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -6469,7 +10477,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -6477,7 +10485,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -6485,7 +10493,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -6493,7 +10501,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -6501,7 +10509,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -6509,7 +10517,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -6517,7 +10525,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -6525,7 +10533,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -6533,7 +10541,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -6541,7 +10549,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -6549,7 +10557,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -6557,7 +10565,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -6565,7 +10573,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -6573,7 +10581,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -6581,7 +10589,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -6589,7 +10597,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -6597,7 +10605,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -6605,7 +10613,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -6613,7 +10621,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -6621,7 +10629,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -6629,7 +10637,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -6637,7 +10645,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -6645,7 +10653,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -6653,7 +10661,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -6661,7 +10669,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -6669,7 +10677,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -6677,7 +10685,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -6685,7 +10693,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -6693,7 +10701,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -6701,7 +10709,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -6709,7 +10717,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -6717,7 +10725,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -6725,7 +10733,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -6733,7 +10741,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -6741,47 +10749,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="9">
-        <v>106</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="9">
-        <v>107</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="9">
-        <v>108</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="9">
-        <v>109</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="9">
-        <v>110</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -6792,4 +10760,575 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A110"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="9" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="9" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="9" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="9" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="9" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="9" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="9" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="9" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="9" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="9" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="9" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="9" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="9" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="9" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="9" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="9" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="9" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="9" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="9" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="9" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="9" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="9" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="9" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="9" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="9" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="9" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="9" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="9" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="9" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="9" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="9" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="9" t="s">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>